--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C40343F-8138-4406-810E-633C66AD74F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9981C24-92E4-46D2-BD88-13331F05E795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,10 @@
   </si>
   <si>
     <t>vector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;int&gt; tabu_tenure_table_i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -427,106 +431,117 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3" s="2">
+        <v>123604301</v>
+      </c>
       <c r="D3" s="1">
         <v>92.239099999999993</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>91729575</v>
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="1">
-        <v>76.668999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>119326345</v>
-      </c>
-      <c r="D5" s="1">
-        <v>96.628500000000003</v>
+        <v>843.38599999999997</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2">
-        <v>78869859</v>
+        <v>91729575</v>
       </c>
       <c r="D6" s="1">
-        <v>64.704800000000006</v>
+        <v>76.668999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>258364945</v>
+        <v>119326345</v>
       </c>
       <c r="D7" s="1">
-        <v>212.17099999999999</v>
+        <v>96.628500000000003</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>312726838</v>
+        <v>78869859</v>
       </c>
       <c r="D8" s="1">
-        <v>256.678</v>
+        <v>64.704800000000006</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>32209388</v>
+        <v>258364945</v>
       </c>
       <c r="D9" s="1">
-        <v>28.588799999999999</v>
+        <v>212.17099999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
-        <v>107452109</v>
+        <v>312726838</v>
       </c>
       <c r="D10" s="1">
-        <v>88.991900000000001</v>
+        <v>256.678</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2">
-        <v>417779635</v>
+        <v>32209388</v>
       </c>
       <c r="D11" s="1">
-        <v>321.54300000000001</v>
+        <v>28.588799999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>107452109</v>
+      </c>
+      <c r="D12" s="1">
+        <v>88.991900000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>417779635</v>
+      </c>
+      <c r="D13" s="1">
+        <v>321.54300000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C14" s="2">
         <v>28009744</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D14" s="1">
         <v>23.5991</v>
       </c>
     </row>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9981C24-92E4-46D2-BD88-13331F05E795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2407D4EA-1CC7-4621-95BB-8A7F2541E217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>vector&lt;int&gt; tabu_tenure_table_i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frequency</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -396,7 +400,7 @@
     <col min="4" max="4" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -409,8 +413,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -424,7 +431,7 @@
         <v>100.438</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -438,7 +445,7 @@
         <v>92.239099999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -446,7 +453,7 @@
         <v>843.38599999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
@@ -457,7 +464,7 @@
         <v>76.668999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
@@ -467,8 +474,11 @@
       <c r="D7" s="1">
         <v>96.628500000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1234878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
@@ -479,7 +489,7 @@
         <v>64.704800000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>5</v>
       </c>
@@ -489,8 +499,11 @@
       <c r="D9" s="1">
         <v>212.17099999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>1217726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>6</v>
       </c>
@@ -501,7 +514,7 @@
         <v>256.678</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>7</v>
       </c>
@@ -512,7 +525,7 @@
         <v>28.588799999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>8</v>
       </c>
@@ -523,7 +536,7 @@
         <v>88.991900000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>9</v>
       </c>
@@ -534,7 +547,7 @@
         <v>321.54300000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>10</v>
       </c>
@@ -557,7 +570,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,25 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2407D4EA-1CC7-4621-95BB-8A7F2541E217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78525BED-55AD-4F86-81AD-67820F0B5EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500.1" sheetId="1" r:id="rId1"/>
     <sheet name="500.5" sheetId="2" r:id="rId2"/>
+    <sheet name="500.9" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="10">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dynamic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vector</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,14 +65,27 @@
     <t>frequency</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>tabu_dynamic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabu_vector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuanFang_reduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -104,10 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -388,16 +408,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -413,13 +435,13 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -430,10 +452,14 @@
       <c r="D2" s="1">
         <v>100.438</v>
       </c>
+      <c r="E2" s="2">
+        <f>C2/D2</f>
+        <v>1230652.7509508354</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -444,16 +470,23 @@
       <c r="D3" s="1">
         <v>92.239099999999993</v>
       </c>
+      <c r="E3" s="2">
+        <f>C3/D3</f>
+        <v>1340042.3573083433</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>843.38599999999997</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
       <c r="B6">
         <v>2</v>
       </c>
@@ -463,8 +496,15 @@
       <c r="D6" s="1">
         <v>76.668999999999997</v>
       </c>
+      <c r="E6" s="2">
+        <f>C6/D6</f>
+        <v>1196436.3041124835</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
       <c r="B7">
         <v>3</v>
       </c>
@@ -474,11 +514,15 @@
       <c r="D7" s="1">
         <v>96.628500000000003</v>
       </c>
-      <c r="E7">
-        <v>1234878</v>
+      <c r="E7" s="2">
+        <f>C7/D7</f>
+        <v>1234898.0373285315</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
       <c r="B8">
         <v>4</v>
       </c>
@@ -488,8 +532,15 @@
       <c r="D8" s="1">
         <v>64.704800000000006</v>
       </c>
+      <c r="E8" s="2">
+        <f t="shared" ref="E8:E14" si="0">C8/D8</f>
+        <v>1218918.2100864232</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
       <c r="B9">
         <v>5</v>
       </c>
@@ -499,11 +550,15 @@
       <c r="D9" s="1">
         <v>212.17099999999999</v>
       </c>
-      <c r="E9">
-        <v>1217726</v>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>1217720.3529228782</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
       <c r="B10">
         <v>6</v>
       </c>
@@ -513,8 +568,15 @@
       <c r="D10" s="1">
         <v>256.678</v>
       </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>1218362.4541254023</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
       <c r="B11">
         <v>7</v>
       </c>
@@ -524,8 +586,15 @@
       <c r="D11" s="1">
         <v>28.588799999999999</v>
       </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>1126643.5807029326</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
       <c r="B12">
         <v>8</v>
       </c>
@@ -535,8 +604,15 @@
       <c r="D12" s="1">
         <v>88.991900000000001</v>
       </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>1207436.9577455926</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
       <c r="B13">
         <v>9</v>
       </c>
@@ -546,8 +622,15 @@
       <c r="D13" s="1">
         <v>321.54300000000001</v>
       </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>1299296.31495632</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
       <c r="B14">
         <v>10</v>
       </c>
@@ -556,6 +639,197 @@
       </c>
       <c r="D14" s="1">
         <v>23.5991</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>1186898.822412719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>123604301</v>
+      </c>
+      <c r="D17" s="1">
+        <v>125.64700000000001</v>
+      </c>
+      <c r="E17" s="2">
+        <v>983741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>91729575</v>
+      </c>
+      <c r="D18" s="1">
+        <v>97.2273</v>
+      </c>
+      <c r="E18" s="2">
+        <v>943455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>119326345</v>
+      </c>
+      <c r="D19" s="1">
+        <v>121.51</v>
+      </c>
+      <c r="E19" s="2">
+        <v>982032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -567,142 +841,602 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD6EFFC-BA4E-4954-8C8C-5C7E8E2EF2DD}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="10" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>267474167</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>565.15800000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="E2" s="3">
+        <f>C2/D2</f>
+        <v>473273.25632831879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>223680573</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>502.47800000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E11" si="0">C3/D3</f>
+        <v>445154.95802801318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>176934040</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>374.85899999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>472001.5792604686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>97163848</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>205.56899999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>472658.07587719942</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>46633598</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>99.997699999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>466346.70597423741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>12541308</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>28.7255</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>436591.46054898959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
         <v>32686148</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>71.171899999999994</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>459256.36381774273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
         <v>36928629</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>78.049000000000007</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>473146.72833732649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
         <v>8581771</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>18.121700000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>473563.24185920745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>39288630</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>84.261300000000006</v>
       </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>466271.34876865178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>267474167</v>
+      </c>
+      <c r="D14" s="1">
+        <v>923.96600000000001</v>
+      </c>
+      <c r="E14" s="2">
+        <v>289485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>223680573</v>
+      </c>
+      <c r="D15" s="1">
+        <v>773.98099999999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>289000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>176934040</v>
+      </c>
+      <c r="D16" s="1">
+        <v>614.673</v>
+      </c>
+      <c r="E16" s="2">
+        <v>287851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D45A1A-035D-4F1E-BC30-8A3627752879}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78525BED-55AD-4F86-81AD-67820F0B5EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD8AAC4-AD62-418C-A679-33D15313E408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500.1" sheetId="1" r:id="rId1"/>
     <sheet name="500.5" sheetId="2" r:id="rId2"/>
     <sheet name="500.9" sheetId="3" r:id="rId3"/>
+    <sheet name="variables" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="25">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +76,66 @@
   </si>
   <si>
     <t>yuanFang_reduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int num_vertex;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int num_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;vector&lt;int&gt;&gt; adj_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;int&gt; vertex_edge_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;int&gt; single_solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int conflict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int best_conflict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;vector&lt;long long int&gt;&gt; tabu_tenure_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;vector&lt;int&gt;&gt; adj_color_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int min_delta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int node_moved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int color_moved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long long int iter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;vector&lt;int&gt;&gt; equal_nontabu_delta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;vector&lt;int&gt;&gt; equal_tabu_delta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -759,6 +820,15 @@
       <c r="B29">
         <v>1</v>
       </c>
+      <c r="C29" s="2">
+        <v>172805497</v>
+      </c>
+      <c r="D29" s="1">
+        <v>388.80200000000002</v>
+      </c>
+      <c r="E29" s="2">
+        <v>444456</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -767,6 +837,15 @@
       <c r="B30">
         <v>2</v>
       </c>
+      <c r="C30" s="2">
+        <v>51180986</v>
+      </c>
+      <c r="D30" s="1">
+        <v>122.26600000000001</v>
+      </c>
+      <c r="E30" s="2">
+        <v>418605</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -774,6 +853,15 @@
       </c>
       <c r="B31">
         <v>3</v>
+      </c>
+      <c r="C31" s="2">
+        <v>164547891</v>
+      </c>
+      <c r="D31" s="1">
+        <v>375.36</v>
+      </c>
+      <c r="E31" s="2">
+        <v>438373</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,15 +929,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD6EFFC-BA4E-4954-8C8C-5C7E8E2EF2DD}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="1"/>
     <col min="5" max="5" width="10" style="3" customWidth="1"/>
@@ -1165,6 +1253,113 @@
         <v>10</v>
       </c>
       <c r="E23" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>14288454</v>
+      </c>
+      <c r="D26" s="1">
+        <v>233.97300000000001</v>
+      </c>
+      <c r="E26" s="3">
+        <v>61068.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>112114436</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1795.97</v>
+      </c>
+      <c r="E27" s="3">
+        <v>62425.599999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2">
+        <v>195040707</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3059.37</v>
+      </c>
+      <c r="E28" s="3">
+        <v>63751.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1439,4 +1634,103 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E3E9D-78F1-4185-B13B-18A9A4AD65AB}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD8AAC4-AD62-418C-A679-33D15313E408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE5A8A1-B61D-4603-B736-B41D0F2F65FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500.1" sheetId="1" r:id="rId1"/>
@@ -131,11 +131,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vector&lt;vector&lt;int&gt;&gt; equal_nontabu_delta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector&lt;vector&lt;int&gt;&gt; equal_tabu_delta</t>
+    <t>vector&lt;Move&gt; equal_nontabu_delta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;Move&gt; equal_tabu_delta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -931,7 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD6EFFC-BA4E-4954-8C8C-5C7E8E2EF2DD}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -1640,7 +1640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E3E9D-78F1-4185-B13B-18A9A4AD65AB}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1732,5 +1732,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE5A8A1-B61D-4603-B736-B41D0F2F65FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C571473-DF5C-4779-9DAE-52AF6BC74C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="24">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,14 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int node_moved</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int color_moved</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>long long int iter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +128,10 @@
   </si>
   <si>
     <t>vector&lt;Move&gt; equal_tabu_delta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move moved</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1638,7 +1634,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E3E9D-78F1-4185-B13B-18A9A4AD65AB}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
@@ -1706,27 +1702,22 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C571473-DF5C-4779-9DAE-52AF6BC74C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D7B287-8572-4CFC-8633-4DD848C74037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="30">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,30 @@
   </si>
   <si>
     <t>Move moved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member variables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void find_move();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void make_move();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void tabu_search();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int get_solution(int i);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1634,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E3E9D-78F1-4185-B13B-18A9A4AD65AB}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1652,72 +1676,102 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D7B287-8572-4CFC-8633-4DD848C74037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E56B1E-E982-4FE2-B487-2B732723E2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="43">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,548 @@
   <si>
     <t>int get_solution(int i);</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>num_vertex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>num_color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>VerNode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>adj_list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>adj_color_table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>long long int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>tabu_tenure_table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>best_conflict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>conflict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>conflict_num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>conflicts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>conflict_index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>num_population</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>unsigned int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>solution_collection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Population_solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>population_solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -168,7 +710,7 @@
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +724,30 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF080808"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0033B3"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF660E7A"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF008080"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -204,11 +770,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -495,7 +1067,7 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="2" customWidth="1"/>
@@ -503,7 +1075,7 @@
     <col min="5" max="5" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -520,7 +1092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -538,7 +1110,7 @@
         <v>1230652.7509508354</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -556,7 +1128,7 @@
         <v>1340042.3573083433</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -564,7 +1136,7 @@
         <v>843.38599999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -582,7 +1154,7 @@
         <v>1196436.3041124835</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -600,7 +1172,7 @@
         <v>1234898.0373285315</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -618,7 +1190,7 @@
         <v>1218918.2100864232</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -636,7 +1208,7 @@
         <v>1217720.3529228782</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -654,7 +1226,7 @@
         <v>1218362.4541254023</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -672,7 +1244,7 @@
         <v>1126643.5807029326</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -690,7 +1262,7 @@
         <v>1207436.9577455926</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -708,7 +1280,7 @@
         <v>1299296.31495632</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -726,7 +1298,7 @@
         <v>1186898.822412719</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -743,7 +1315,7 @@
         <v>983741</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -760,7 +1332,7 @@
         <v>943455</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -777,7 +1349,7 @@
         <v>982032</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -785,7 +1357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -793,7 +1365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -801,7 +1373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -809,7 +1381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -817,7 +1389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -825,7 +1397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -833,7 +1405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -850,7 +1422,7 @@
         <v>444456</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -867,7 +1439,7 @@
         <v>418605</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -884,7 +1456,7 @@
         <v>438373</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -892,7 +1464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -900,7 +1472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -908,7 +1480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -916,7 +1488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -924,7 +1496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -932,7 +1504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -955,7 +1527,7 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" style="2" customWidth="1"/>
@@ -963,7 +1535,7 @@
     <col min="5" max="5" width="10" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -980,7 +1552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -998,7 +1570,7 @@
         <v>473273.25632831879</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1016,7 +1588,7 @@
         <v>445154.95802801318</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1034,7 +1606,7 @@
         <v>472001.5792604686</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1052,7 +1624,7 @@
         <v>472658.07587719942</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1070,7 +1642,7 @@
         <v>466346.70597423741</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1088,7 +1660,7 @@
         <v>436591.46054898959</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1106,7 +1678,7 @@
         <v>459256.36381774273</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1124,7 +1696,7 @@
         <v>473146.72833732649</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1142,7 +1714,7 @@
         <v>473563.24185920745</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1160,7 +1732,7 @@
         <v>466271.34876865178</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1177,7 +1749,7 @@
         <v>289485</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1194,7 +1766,7 @@
         <v>289000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1211,7 +1783,7 @@
         <v>287851</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1220,7 +1792,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1229,7 +1801,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1238,7 +1810,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1247,7 +1819,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1256,7 +1828,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1265,7 +1837,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1274,7 +1846,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1291,7 +1863,7 @@
         <v>61068.9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1308,7 +1880,7 @@
         <v>62425.599999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1325,7 +1897,7 @@
         <v>63751.9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1333,7 +1905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1341,7 +1913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1349,7 +1921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1357,7 +1929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1365,7 +1937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1373,7 +1945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1396,14 +1968,14 @@
       <selection activeCell="C14" sqref="C14:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.109375" customWidth="1"/>
     <col min="5" max="5" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1420,7 +1992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1431,7 +2003,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1442,7 +2014,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1453,7 +2025,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1464,7 +2036,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1475,7 +2047,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1486,7 +2058,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1497,7 +2069,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1508,7 +2080,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1519,7 +2091,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1530,17 +2102,17 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1551,7 +2123,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1562,7 +2134,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1573,7 +2145,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1584,7 +2156,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1595,7 +2167,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1606,7 +2178,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1617,7 +2189,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1628,7 +2200,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1639,7 +2211,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1658,119 +2230,183 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E3E9D-78F1-4185-B13B-18A9A4AD65AB}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="49.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B15" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="21" spans="1:2">
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E56B1E-E982-4FE2-B487-2B732723E2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BB7C9E-41F9-4077-A3E3-901B694B999B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="43">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,62 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int num_vertex;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int num_color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector&lt;vector&lt;int&gt;&gt; adj_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector&lt;int&gt; vertex_edge_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector&lt;int&gt; single_solution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int conflict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int best_conflict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector&lt;vector&lt;long long int&gt;&gt; tabu_tenure_table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector&lt;vector&lt;int&gt;&gt; adj_color_table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int min_delta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long long int iter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector&lt;Move&gt; equal_nontabu_delta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector&lt;Move&gt; equal_tabu_delta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move moved</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>member variables</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,22 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>void find_move();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void make_move();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void tabu_search();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int get_solution(int i);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">int </t>
     </r>
@@ -698,6 +626,789 @@
         <family val="2"/>
       </rPr>
       <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">long long int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>max_iter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>find_move</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>unsigned int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt; &amp;solution);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>make_move</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>unsigned int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt; &amp;solution);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>tabu_search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>unsigned int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; &amp;solution, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">bool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>is_limit);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>add_conflict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>adj_vertex);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>delete_conflict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>adj_vertex);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>cross_over</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">unsigned int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">p1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">unsigned int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">p2, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>unsigned int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt; &amp;index1);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>adj_list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>vertex_edge_num</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>unsigned int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>single_solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>min_delta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Move </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>moved</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">long long int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>iter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Move</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>equal_nontabu_delta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Move</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>equal_tabu_delta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>find_move</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>make_move</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>tabu_search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>();</t>
     </r>
   </si>
 </sst>
@@ -710,7 +1421,7 @@
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,6 +1457,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF008080"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00627A"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
@@ -2230,10 +2947,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E3E9D-78F1-4185-B13B-18A9A4AD65AB}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2252,134 +2969,137 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
+      <c r="A3" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>11</v>
+      <c r="A4" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>12</v>
+      <c r="A5" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>13</v>
+      <c r="A6" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>14</v>
+      <c r="A7" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>15</v>
+      <c r="A8" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>16</v>
+      <c r="A9" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>17</v>
+      <c r="A14" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>18</v>
+      <c r="A15" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>19</v>
+      <c r="A16" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>23</v>
+      <c r="A17" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>20</v>
+      <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>21</v>
+      <c r="A19" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>22</v>
+      <c r="A20" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" s="5" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2387,27 +3107,52 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="B30" s="4" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BB7C9E-41F9-4077-A3E3-901B694B999B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC92DF6-0547-413E-8E2A-47077A359A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2947,10 +2947,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E3E9D-78F1-4185-B13B-18A9A4AD65AB}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3010,148 +3010,155 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A8" s="5"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="4" t="s">
+    <row r="11" spans="1:2">
+      <c r="B11" s="4" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="4"/>
-    </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="B21" s="4" t="s">
+    <row r="23" spans="1:2">
+      <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" s="5" t="s">
+    <row r="24" spans="1:2">
+      <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="5" t="s">
+    <row r="25" spans="1:2">
+      <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="5"/>
-    </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="B26" s="5"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="B30" s="4" t="s">
+    <row r="32" spans="1:2">
+      <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="B31" s="4" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="B32" s="4"/>
-    </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="4" t="s">
         <v>31</v>
       </c>
     </row>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC92DF6-0547-413E-8E2A-47077A359A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054856B8-3FDC-4F6C-93FA-E679EB837225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="46">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1409,6 +1409,129 @@
         <family val="2"/>
       </rPr>
       <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Move</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>tabu_move</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Move</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>non_tabu_move</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Move </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>moved</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
     </r>
   </si>
 </sst>
@@ -2947,10 +3070,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E3E9D-78F1-4185-B13B-18A9A4AD65AB}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3044,27 +3167,23 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="4"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
@@ -3075,90 +3194,102 @@
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="B19" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>25</v>
+      <c r="A20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="B21" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
-        <v>39</v>
+      <c r="A22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="B26" s="5"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+    <row r="27" spans="1:2">
+      <c r="B27" s="5"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="B32" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="4"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="4" t="s">
+    <row r="35" spans="2:2">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="4" t="s">
         <v>31</v>
       </c>
     </row>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054856B8-3FDC-4F6C-93FA-E679EB837225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24F4D69-FB56-4864-8F39-878F14806CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3070,10 +3070,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E3E9D-78F1-4185-B13B-18A9A4AD65AB}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3128,168 +3128,166 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="A7" s="5"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" s="4" t="s">
-        <v>19</v>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>16</v>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
-        <v>35</v>
+      <c r="A18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>44</v>
+      <c r="A21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A22" s="5"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="5"/>
+      <c r="B23" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="B24" s="4" t="s">
-        <v>22</v>
+      <c r="A24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="B26" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" s="5"/>
+      <c r="B26" s="5"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
+      <c r="A29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="B32" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="4"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="4" t="s">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="4" t="s">
         <v>31</v>
       </c>
     </row>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24F4D69-FB56-4864-8F39-878F14806CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372EAFC3-79E2-4313-8CC5-6CD61CF10571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500.1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="47">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1533,6 +1533,10 @@
       </rPr>
       <t>;</t>
     </r>
+  </si>
+  <si>
+    <t>HEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1901,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2352,6 +2356,86 @@
         <v>10</v>
       </c>
     </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2363,8 +2447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD6EFFC-BA4E-4954-8C8C-5C7E8E2EF2DD}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3072,7 +3156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E3E9D-78F1-4185-B13B-18A9A4AD65AB}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372EAFC3-79E2-4313-8CC5-6CD61CF10571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C6DDB6-107D-404C-886F-BED6BFAC6D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2308,7 +2308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2356,15 +2356,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>46</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="D41" s="1">
+        <v>38.008699999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2372,7 +2375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2380,7 +2383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2388,7 +2391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -2396,7 +2399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2404,7 +2407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2412,7 +2415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>46</v>
       </c>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C6DDB6-107D-404C-886F-BED6BFAC6D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B109B77D-0728-4ADA-B2CD-D965FC952C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500.1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="50">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1537,6 +1537,164 @@
   <si>
     <t>HEA</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>insert_adj_list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">i, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>j);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00627A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>cross_over</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">unsigned int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">s1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">unsigned int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">s2, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>unsigned int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt; &amp;index1);</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1907,8 +2065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2373,6 +2531,9 @@
       </c>
       <c r="B42">
         <v>2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>249.387</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3157,225 +3318,304 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E3E9D-78F1-4185-B13B-18A9A4AD65AB}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="49.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C15" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="4" t="s">
+      <c r="C22" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="5" t="s">
+      <c r="C24" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="B26" s="5"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="C26" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="5"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
+      <c r="C31" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="4" t="s">
+      <c r="C32" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="B32" s="4" t="s">
+      <c r="C33" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="4" t="s">
+    <row r="35" spans="1:3">
+      <c r="B35" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="4"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="4" t="s">
+    <row r="36" spans="1:3">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B109B77D-0728-4ADA-B2CD-D965FC952C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B03BE31-91E5-4D6C-88C0-7E082749B929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3320,8 +3320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E3E9D-78F1-4185-B13B-18A9A4AD65AB}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B03BE31-91E5-4D6C-88C0-7E082749B929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9607135C-F241-4C55-9D99-C31520DCBA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500.1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="52">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1695,6 +1695,14 @@
       </rPr>
       <t>&gt; &amp;index1);</t>
     </r>
+  </si>
+  <si>
+    <t>pupulation=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_iter=20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2065,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2514,6 +2522,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>46</v>
@@ -2522,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="1">
-        <v>38.008699999999997</v>
+        <v>38.347799999999999</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3320,7 +3336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E3E9D-78F1-4185-B13B-18A9A4AD65AB}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9607135C-F241-4C55-9D99-C31520DCBA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B573A656-928A-4854-9B17-C6AF5B961581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2074,7 +2074,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2549,7 +2549,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="1">
-        <v>249.387</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:4">

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B573A656-928A-4854-9B17-C6AF5B961581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC691BC-7A00-45C2-A226-F9FB1E94E8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="55">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1702,6 +1702,18 @@
   </si>
   <si>
     <t>max_iter=20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_iter=10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pupulation=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2071,17 +2083,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="15.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2526,7 +2538,10 @@
       <c r="A40" t="s">
         <v>50</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2549,7 +2564,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="1">
-        <v>41</v>
+        <v>35.117199999999997</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2559,6 +2574,9 @@
       <c r="B43">
         <v>3</v>
       </c>
+      <c r="D43" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
@@ -2567,6 +2585,7 @@
       <c r="B44">
         <v>4</v>
       </c>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
@@ -2575,6 +2594,7 @@
       <c r="B45">
         <v>5</v>
       </c>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
@@ -2583,6 +2603,7 @@
       <c r="B46">
         <v>6</v>
       </c>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
@@ -2591,6 +2612,7 @@
       <c r="B47">
         <v>7</v>
       </c>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
@@ -2599,22 +2621,141 @@
       <c r="B48">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>46</v>
       </c>
       <c r="B49">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>46</v>
       </c>
       <c r="B50">
         <v>10</v>
       </c>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>39.868499999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1">
+        <v>28.5425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1">
+        <v>76.474500000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1">
+        <v>26.671900000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1">
+        <v>7.6248500000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC691BC-7A00-45C2-A226-F9FB1E94E8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AC9018-D1EC-4C9F-867B-33650F55B8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="55">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2083,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2756,6 +2756,211 @@
         <v>10</v>
       </c>
       <c r="C61" s="1"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>37.597900000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1">
+        <v>27.9678</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>46</v>
+      </c>
+      <c r="B81">
+        <v>6</v>
+      </c>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83">
+        <v>8</v>
+      </c>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84">
+        <v>9</v>
+      </c>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AC9018-D1EC-4C9F-867B-33650F55B8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4378C1EB-4691-471E-ADA5-9C1DA5450904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2085,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2874,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="1">
-        <v>37.597900000000003</v>
+        <v>35.658999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:4">

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4378C1EB-4691-471E-ADA5-9C1DA5450904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9461D4-20EE-4728-BBB6-FA9ACAF60C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2086,7 +2086,7 @@
   <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2896,7 +2896,7 @@
         <v>3</v>
       </c>
       <c r="D78" s="1">
-        <v>27.9678</v>
+        <v>26.7226</v>
       </c>
     </row>
     <row r="79" spans="1:4">

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9461D4-20EE-4728-BBB6-FA9ACAF60C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FA6AF0-4E67-4989-9D20-8A044A9F2179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="56">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1714,6 +1714,10 @@
   </si>
   <si>
     <t>INF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_iter=16000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2083,21 +2087,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2107,14 +2111,14 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2124,15 +2128,15 @@
       <c r="C2" s="2">
         <v>123604301</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>100.438</v>
       </c>
-      <c r="E2" s="2">
-        <f>C2/D2</f>
+      <c r="F2" s="2">
+        <f>C2/E2</f>
         <v>1230652.7509508354</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2142,23 +2146,23 @@
       <c r="C3" s="2">
         <v>123604301</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>92.239099999999993</v>
       </c>
-      <c r="E3" s="2">
-        <f>C3/D3</f>
+      <c r="F3" s="2">
+        <f>C3/E3</f>
         <v>1340042.3573083433</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>843.38599999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2168,15 +2172,15 @@
       <c r="C6" s="2">
         <v>91729575</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>76.668999999999997</v>
       </c>
-      <c r="E6" s="2">
-        <f>C6/D6</f>
+      <c r="F6" s="2">
+        <f>C6/E6</f>
         <v>1196436.3041124835</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2186,15 +2190,15 @@
       <c r="C7" s="2">
         <v>119326345</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>96.628500000000003</v>
       </c>
-      <c r="E7" s="2">
-        <f>C7/D7</f>
+      <c r="F7" s="2">
+        <f>C7/E7</f>
         <v>1234898.0373285315</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2204,15 +2208,15 @@
       <c r="C8" s="2">
         <v>78869859</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>64.704800000000006</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" ref="E8:E14" si="0">C8/D8</f>
+      <c r="F8" s="2">
+        <f t="shared" ref="F8:F14" si="0">C8/E8</f>
         <v>1218918.2100864232</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2222,15 +2226,15 @@
       <c r="C9" s="2">
         <v>258364945</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>212.17099999999999</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>1217720.3529228782</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2240,15 +2244,15 @@
       <c r="C10" s="2">
         <v>312726838</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>256.678</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>1218362.4541254023</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2258,15 +2262,15 @@
       <c r="C11" s="2">
         <v>32209388</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>28.588799999999999</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>1126643.5807029326</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2276,15 +2280,15 @@
       <c r="C12" s="2">
         <v>107452109</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>88.991900000000001</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>1207436.9577455926</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2294,15 +2298,15 @@
       <c r="C13" s="2">
         <v>417779635</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>321.54300000000001</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>1299296.31495632</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2312,15 +2316,15 @@
       <c r="C14" s="2">
         <v>28009744</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>23.5991</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>1186898.822412719</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2330,14 +2334,14 @@
       <c r="C17" s="2">
         <v>123604301</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>125.64700000000001</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>983741</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2347,14 +2351,14 @@
       <c r="C18" s="2">
         <v>91729575</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>97.2273</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>943455</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2364,14 +2368,14 @@
       <c r="C19" s="2">
         <v>119326345</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>121.51</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>982032</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2379,7 +2383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2387,7 +2391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2395,7 +2399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -2403,7 +2407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2411,7 +2415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2419,7 +2423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2427,7 +2431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2437,14 +2441,14 @@
       <c r="C29" s="2">
         <v>172805497</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>388.80200000000002</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="2">
         <v>444456</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2454,14 +2458,14 @@
       <c r="C30" s="2">
         <v>51180986</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>122.26600000000001</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <v>418605</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2471,14 +2475,14 @@
       <c r="C31" s="2">
         <v>164547891</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>375.36</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <v>438373</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2486,7 +2490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -2494,7 +2498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2502,7 +2506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -2510,7 +2514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2518,7 +2522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -2526,7 +2530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2534,51 +2538,51 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>46</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="D41" s="1">
+      <c r="E41" s="1">
         <v>38.347799999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>46</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="1">
         <v>35.117199999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2586,8 +2590,9 @@
         <v>4</v>
       </c>
       <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -2595,8 +2600,9 @@
         <v>5</v>
       </c>
       <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2604,8 +2610,9 @@
         <v>6</v>
       </c>
       <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2613,8 +2620,9 @@
         <v>7</v>
       </c>
       <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2622,8 +2630,9 @@
         <v>8</v>
       </c>
       <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -2631,8 +2640,9 @@
         <v>9</v>
       </c>
       <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -2640,52 +2650,53 @@
         <v>10</v>
       </c>
       <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>46</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="D52" s="1">
+      <c r="E52" s="1">
         <v>39.868499999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>46</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>46</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
-      <c r="D54" s="1">
+      <c r="E54" s="1">
         <v>28.5425</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -2693,11 +2704,12 @@
         <v>4</v>
       </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="1">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1">
         <v>76.474500000000006</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>46</v>
       </c>
@@ -2705,11 +2717,12 @@
         <v>5</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="1">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1">
         <v>26.671900000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>46</v>
       </c>
@@ -2717,11 +2730,12 @@
         <v>6</v>
       </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="1">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1">
         <v>7.6248500000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>46</v>
       </c>
@@ -2729,8 +2743,9 @@
         <v>7</v>
       </c>
       <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>46</v>
       </c>
@@ -2738,8 +2753,9 @@
         <v>8</v>
       </c>
       <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>46</v>
       </c>
@@ -2747,8 +2763,9 @@
         <v>9</v>
       </c>
       <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -2756,19 +2773,23 @@
         <v>10</v>
       </c>
       <c r="C61" s="1"/>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="D61" s="1"/>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -2776,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>46</v>
       </c>
@@ -2784,7 +2805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>46</v>
       </c>
@@ -2792,7 +2813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>46</v>
       </c>
@@ -2800,8 +2821,9 @@
         <v>4</v>
       </c>
       <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>46</v>
       </c>
@@ -2809,8 +2831,9 @@
         <v>5</v>
       </c>
       <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>46</v>
       </c>
@@ -2818,8 +2841,9 @@
         <v>6</v>
       </c>
       <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>46</v>
       </c>
@@ -2827,8 +2851,9 @@
         <v>7</v>
       </c>
       <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>46</v>
       </c>
@@ -2836,8 +2861,9 @@
         <v>8</v>
       </c>
       <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>46</v>
       </c>
@@ -2845,8 +2871,9 @@
         <v>9</v>
       </c>
       <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -2854,52 +2881,53 @@
         <v>10</v>
       </c>
       <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>53</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>46</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
-      <c r="D76" s="1">
-        <v>35.658999999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" s="1">
+        <v>35.171900000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>46</v>
       </c>
       <c r="B77">
         <v>2</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>46</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
-      <c r="D78" s="1">
+      <c r="E78" s="1">
         <v>26.7226</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>46</v>
       </c>
@@ -2907,8 +2935,9 @@
         <v>4</v>
       </c>
       <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +2945,9 @@
         <v>5</v>
       </c>
       <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>46</v>
       </c>
@@ -2925,8 +2955,9 @@
         <v>6</v>
       </c>
       <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>46</v>
       </c>
@@ -2934,8 +2965,9 @@
         <v>7</v>
       </c>
       <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>46</v>
       </c>
@@ -2943,8 +2975,9 @@
         <v>8</v>
       </c>
       <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>46</v>
       </c>
@@ -2952,8 +2985,9 @@
         <v>9</v>
       </c>
       <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>46</v>
       </c>
@@ -2961,6 +2995,7 @@
         <v>10</v>
       </c>
       <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FA6AF0-4E67-4989-9D20-8A044A9F2179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3277005-F3EC-4157-92FC-DEFA06EC7927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="56">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1717,7 +1717,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>max_iter=16000</t>
+    <t>HEA_dynamic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2087,21 +2087,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="3" max="4" width="15.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2111,14 +2111,14 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2128,15 +2128,15 @@
       <c r="C2" s="2">
         <v>123604301</v>
       </c>
-      <c r="E2" s="1">
+      <c r="D2" s="1">
         <v>100.438</v>
       </c>
-      <c r="F2" s="2">
-        <f>C2/E2</f>
+      <c r="E2" s="2">
+        <f>C2/D2</f>
         <v>1230652.7509508354</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2146,23 +2146,23 @@
       <c r="C3" s="2">
         <v>123604301</v>
       </c>
-      <c r="E3" s="1">
+      <c r="D3" s="1">
         <v>92.239099999999993</v>
       </c>
-      <c r="F3" s="2">
-        <f>C3/E3</f>
+      <c r="E3" s="2">
+        <f>C3/D3</f>
         <v>1340042.3573083433</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1">
+      <c r="D4" s="1">
         <v>843.38599999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2172,15 +2172,15 @@
       <c r="C6" s="2">
         <v>91729575</v>
       </c>
-      <c r="E6" s="1">
+      <c r="D6" s="1">
         <v>76.668999999999997</v>
       </c>
-      <c r="F6" s="2">
-        <f>C6/E6</f>
+      <c r="E6" s="2">
+        <f>C6/D6</f>
         <v>1196436.3041124835</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2190,15 +2190,15 @@
       <c r="C7" s="2">
         <v>119326345</v>
       </c>
-      <c r="E7" s="1">
+      <c r="D7" s="1">
         <v>96.628500000000003</v>
       </c>
-      <c r="F7" s="2">
-        <f>C7/E7</f>
+      <c r="E7" s="2">
+        <f>C7/D7</f>
         <v>1234898.0373285315</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2208,15 +2208,15 @@
       <c r="C8" s="2">
         <v>78869859</v>
       </c>
-      <c r="E8" s="1">
+      <c r="D8" s="1">
         <v>64.704800000000006</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" ref="F8:F14" si="0">C8/E8</f>
+      <c r="E8" s="2">
+        <f>C8/D8</f>
         <v>1218918.2100864232</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2226,15 +2226,15 @@
       <c r="C9" s="2">
         <v>258364945</v>
       </c>
-      <c r="E9" s="1">
+      <c r="D9" s="1">
         <v>212.17099999999999</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
+      <c r="E9" s="2">
+        <f>C9/D9</f>
         <v>1217720.3529228782</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2244,15 +2244,15 @@
       <c r="C10" s="2">
         <v>312726838</v>
       </c>
-      <c r="E10" s="1">
+      <c r="D10" s="1">
         <v>256.678</v>
       </c>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
+      <c r="E10" s="2">
+        <f>C10/D10</f>
         <v>1218362.4541254023</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2262,15 +2262,15 @@
       <c r="C11" s="2">
         <v>32209388</v>
       </c>
-      <c r="E11" s="1">
+      <c r="D11" s="1">
         <v>28.588799999999999</v>
       </c>
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
+      <c r="E11" s="2">
+        <f>C11/D11</f>
         <v>1126643.5807029326</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2280,15 +2280,15 @@
       <c r="C12" s="2">
         <v>107452109</v>
       </c>
-      <c r="E12" s="1">
+      <c r="D12" s="1">
         <v>88.991900000000001</v>
       </c>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
+      <c r="E12" s="2">
+        <f>C12/D12</f>
         <v>1207436.9577455926</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2298,15 +2298,15 @@
       <c r="C13" s="2">
         <v>417779635</v>
       </c>
-      <c r="E13" s="1">
+      <c r="D13" s="1">
         <v>321.54300000000001</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
+      <c r="E13" s="2">
+        <f>C13/D13</f>
         <v>1299296.31495632</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2316,15 +2316,15 @@
       <c r="C14" s="2">
         <v>28009744</v>
       </c>
-      <c r="E14" s="1">
+      <c r="D14" s="1">
         <v>23.5991</v>
       </c>
-      <c r="F14" s="2">
-        <f t="shared" si="0"/>
+      <c r="E14" s="2">
+        <f>C14/D14</f>
         <v>1186898.822412719</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2334,14 +2334,14 @@
       <c r="C17" s="2">
         <v>123604301</v>
       </c>
-      <c r="E17" s="1">
+      <c r="D17" s="1">
         <v>125.64700000000001</v>
       </c>
-      <c r="F17" s="2">
+      <c r="E17" s="2">
         <v>983741</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2351,14 +2351,14 @@
       <c r="C18" s="2">
         <v>91729575</v>
       </c>
-      <c r="E18" s="1">
+      <c r="D18" s="1">
         <v>97.2273</v>
       </c>
-      <c r="F18" s="2">
+      <c r="E18" s="2">
         <v>943455</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2368,14 +2368,14 @@
       <c r="C19" s="2">
         <v>119326345</v>
       </c>
-      <c r="E19" s="1">
+      <c r="D19" s="1">
         <v>121.51</v>
       </c>
-      <c r="F19" s="2">
+      <c r="E19" s="2">
         <v>982032</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2441,14 +2441,14 @@
       <c r="C29" s="2">
         <v>172805497</v>
       </c>
-      <c r="E29" s="1">
+      <c r="D29" s="1">
         <v>388.80200000000002</v>
       </c>
-      <c r="F29" s="2">
+      <c r="E29" s="2">
         <v>444456</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2458,14 +2458,14 @@
       <c r="C30" s="2">
         <v>51180986</v>
       </c>
-      <c r="E30" s="1">
+      <c r="D30" s="1">
         <v>122.26600000000001</v>
       </c>
-      <c r="F30" s="2">
+      <c r="E30" s="2">
         <v>418605</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2475,14 +2475,14 @@
       <c r="C31" s="2">
         <v>164547891</v>
       </c>
-      <c r="E31" s="1">
+      <c r="D31" s="1">
         <v>375.36</v>
       </c>
-      <c r="F31" s="2">
+      <c r="E31" s="2">
         <v>438373</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2538,51 +2538,51 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E40" t="s">
+      <c r="D40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>46</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="E41" s="1">
+      <c r="D41" s="1">
         <v>38.347799999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>46</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
-      <c r="E42" s="1">
+      <c r="D42" s="1">
         <v>35.117199999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2590,9 +2590,8 @@
         <v>4</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:5">
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -2600,9 +2599,8 @@
         <v>5</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:5">
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2610,9 +2608,8 @@
         <v>6</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:5">
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2620,9 +2617,8 @@
         <v>7</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:5">
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2630,9 +2626,8 @@
         <v>8</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -2640,9 +2635,8 @@
         <v>9</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -2650,53 +2644,52 @@
         <v>10</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E51" t="s">
+      <c r="D51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>46</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="E52" s="1">
+      <c r="D52" s="1">
         <v>39.868499999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>46</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>46</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
-      <c r="E54" s="1">
+      <c r="D54" s="1">
         <v>28.5425</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -2704,12 +2697,11 @@
         <v>4</v>
       </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1">
+      <c r="D55" s="1">
         <v>76.474500000000006</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>46</v>
       </c>
@@ -2717,12 +2709,11 @@
         <v>5</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1">
+      <c r="D56" s="1">
         <v>26.671900000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>46</v>
       </c>
@@ -2730,12 +2721,11 @@
         <v>6</v>
       </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1">
+      <c r="D57" s="1">
         <v>7.6248500000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>46</v>
       </c>
@@ -2743,9 +2733,8 @@
         <v>7</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:5">
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>46</v>
       </c>
@@ -2753,9 +2742,8 @@
         <v>8</v>
       </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:5">
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>46</v>
       </c>
@@ -2763,9 +2751,8 @@
         <v>9</v>
       </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:5">
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -2773,229 +2760,211 @@
         <v>10</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="64" spans="1:5">
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
         <v>55</v>
-      </c>
-      <c r="E64" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>46</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B68">
         <v>4</v>
       </c>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:5">
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B69">
         <v>5</v>
       </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:5">
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B70">
         <v>6</v>
       </c>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:5">
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B71">
         <v>7</v>
       </c>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:5">
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B72">
         <v>8</v>
       </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:5">
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B73">
         <v>9</v>
       </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:5">
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B74">
         <v>10</v>
       </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:5">
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>53</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E75" t="s">
+      <c r="D75" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
-      <c r="E76" s="1">
+      <c r="D76" s="1">
         <v>35.171900000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B77">
         <v>2</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
-      <c r="E78" s="1">
+      <c r="D78" s="1">
         <v>26.7226</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B79">
         <v>4</v>
       </c>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:5">
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B80">
         <v>5</v>
       </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4">
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B81">
         <v>6</v>
       </c>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4">
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B82">
         <v>7</v>
       </c>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4">
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B83">
         <v>8</v>
       </c>
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4">
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B84">
         <v>9</v>
       </c>
       <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4">
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B85">
         <v>10</v>
       </c>
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3008,7 +2977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD6EFFC-BA4E-4954-8C8C-5C7E8E2EF2DD}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3277005-F3EC-4157-92FC-DEFA06EC7927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50D2DB2-0DDD-4320-8691-CD2F5F05CC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,10 @@
     <sheet name="500.1" sheetId="1" r:id="rId1"/>
     <sheet name="500.5" sheetId="2" r:id="rId2"/>
     <sheet name="500.9" sheetId="3" r:id="rId3"/>
-    <sheet name="variables" sheetId="4" r:id="rId4"/>
+    <sheet name="1000.1" sheetId="5" r:id="rId4"/>
+    <sheet name="1000.5" sheetId="6" r:id="rId5"/>
+    <sheet name="1000.9" sheetId="7" r:id="rId6"/>
+    <sheet name="variables" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="58">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1718,6 +1721,14 @@
   </si>
   <si>
     <t>HEA_dynamic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_iter=30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_iter=40000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2087,10 +2098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2098,7 +2109,8 @@
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2176,7 +2188,7 @@
         <v>76.668999999999997</v>
       </c>
       <c r="E6" s="2">
-        <f>C6/D6</f>
+        <f t="shared" ref="E6:E14" si="0">C6/D6</f>
         <v>1196436.3041124835</v>
       </c>
     </row>
@@ -2194,7 +2206,7 @@
         <v>96.628500000000003</v>
       </c>
       <c r="E7" s="2">
-        <f>C7/D7</f>
+        <f t="shared" si="0"/>
         <v>1234898.0373285315</v>
       </c>
     </row>
@@ -2212,7 +2224,7 @@
         <v>64.704800000000006</v>
       </c>
       <c r="E8" s="2">
-        <f>C8/D8</f>
+        <f t="shared" si="0"/>
         <v>1218918.2100864232</v>
       </c>
     </row>
@@ -2230,7 +2242,7 @@
         <v>212.17099999999999</v>
       </c>
       <c r="E9" s="2">
-        <f>C9/D9</f>
+        <f t="shared" si="0"/>
         <v>1217720.3529228782</v>
       </c>
     </row>
@@ -2248,7 +2260,7 @@
         <v>256.678</v>
       </c>
       <c r="E10" s="2">
-        <f>C10/D10</f>
+        <f t="shared" si="0"/>
         <v>1218362.4541254023</v>
       </c>
     </row>
@@ -2266,7 +2278,7 @@
         <v>28.588799999999999</v>
       </c>
       <c r="E11" s="2">
-        <f>C11/D11</f>
+        <f t="shared" si="0"/>
         <v>1126643.5807029326</v>
       </c>
     </row>
@@ -2284,7 +2296,7 @@
         <v>88.991900000000001</v>
       </c>
       <c r="E12" s="2">
-        <f>C12/D12</f>
+        <f t="shared" si="0"/>
         <v>1207436.9577455926</v>
       </c>
     </row>
@@ -2302,7 +2314,7 @@
         <v>321.54300000000001</v>
       </c>
       <c r="E13" s="2">
-        <f>C13/D13</f>
+        <f t="shared" si="0"/>
         <v>1299296.31495632</v>
       </c>
     </row>
@@ -2320,7 +2332,7 @@
         <v>23.5991</v>
       </c>
       <c r="E14" s="2">
-        <f>C14/D14</f>
+        <f t="shared" si="0"/>
         <v>1186898.822412719</v>
       </c>
     </row>
@@ -2490,7 +2502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -2498,7 +2510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2506,7 +2518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -2514,7 +2526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2522,7 +2534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -2530,7 +2542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2538,433 +2550,560 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="2" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
-        <v>38.347799999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>46</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1">
-        <v>35.117199999999997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>39.868499999999997</v>
+      </c>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1">
+        <v>28.5425</v>
+      </c>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="D45" s="1">
+        <v>76.474500000000006</v>
+      </c>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="D46" s="1">
+        <v>26.671900000000001</v>
+      </c>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="D47" s="1">
+        <v>7.6248500000000003</v>
+      </c>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>46</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>46</v>
       </c>
       <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51">
         <v>10</v>
       </c>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
-        <v>39.868499999999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>46</v>
       </c>
       <c r="B53">
-        <v>2</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>38.347799999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>46</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" s="1">
-        <v>28.5425</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>35.117199999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>46</v>
       </c>
       <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1">
-        <v>76.474500000000006</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>46</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="1">
-        <v>26.671900000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>46</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="1">
-        <v>7.6248500000000003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>46</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>46</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>46</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>46</v>
       </c>
       <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62">
         <v>10</v>
       </c>
-      <c r="C61" s="1"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>55</v>
       </c>
       <c r="B66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>35.027200000000001</v>
+      </c>
+      <c r="E66" s="2">
+        <v>16.697099999999999</v>
+      </c>
+      <c r="F66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>55</v>
       </c>
       <c r="B67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" s="2">
+        <v>37.689599999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>55</v>
       </c>
       <c r="B68">
-        <v>4</v>
-      </c>
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1">
+        <v>25.926200000000001</v>
+      </c>
+      <c r="E68" s="2">
+        <v>21.445499999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>55</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="D69" s="1">
+        <v>69.53</v>
+      </c>
+      <c r="E69" s="2">
+        <v>47.476300000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>55</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="D70" s="1">
+        <v>23.709099999999999</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>55</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="D71" s="1">
+        <v>6.8328199999999999</v>
+      </c>
+      <c r="E71" s="2">
+        <v>22.095800000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>55</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="D72" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>55</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="D73" s="1">
+        <v>75.399600000000007</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>55</v>
       </c>
       <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1">
+        <v>15.4695</v>
+      </c>
+      <c r="E74" s="2">
+        <v>27.0581</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75">
         <v>10</v>
       </c>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>53</v>
-      </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D77" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1">
-        <v>35.171900000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>55</v>
-      </c>
-      <c r="B77">
-        <v>2</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>55</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D78" s="1">
-        <v>26.7226</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>32.190199999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>55</v>
       </c>
       <c r="B79">
-        <v>4</v>
-      </c>
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>55</v>
       </c>
       <c r="B80">
-        <v>5</v>
-      </c>
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="1:3">
+        <v>3</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>55</v>
       </c>
       <c r="B81">
-        <v>6</v>
-      </c>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="1">
+        <v>47.87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>55</v>
       </c>
       <c r="B82">
-        <v>7</v>
-      </c>
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="C82" s="1">
+        <v>8.3785399999999992</v>
+      </c>
+      <c r="D82" s="1">
+        <v>42.3934</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>55</v>
       </c>
       <c r="B83">
-        <v>8</v>
-      </c>
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>55</v>
       </c>
       <c r="B84">
-        <v>9</v>
-      </c>
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84" s="1">
+        <v>59.957700000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>55</v>
       </c>
       <c r="B85">
+        <v>8</v>
+      </c>
+      <c r="C85" s="1">
+        <v>28.121500000000001</v>
+      </c>
+      <c r="D85" s="1">
+        <v>34.878500000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>55</v>
+      </c>
+      <c r="B86">
+        <v>9</v>
+      </c>
+      <c r="C86" s="1">
+        <v>26.840900000000001</v>
+      </c>
+      <c r="D86" s="1">
+        <v>43.719299999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>55</v>
+      </c>
+      <c r="B87">
         <v>10</v>
       </c>
-      <c r="C85" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2975,17 +3114,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD6EFFC-BA4E-4954-8C8C-5C7E8E2EF2DD}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="15.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3383,7 +3522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -3391,7 +3530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -3399,12 +3538,281 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>9</v>
       </c>
       <c r="B35">
         <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>22.821300000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>18.106100000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>11.802199999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1">
+        <v>30.808299999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1">
+        <v>30.332699999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1">
+        <v>13.6275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1">
+        <v>12.792199999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1">
+        <v>13.1172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1">
+        <v>40.110900000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1">
+        <v>8.4746199999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1">
+        <f>AVERAGE(D39:D47)</f>
+        <v>21.502044444444444</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>43.610300000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>15.3895</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1">
+        <v>79.558700000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1">
+        <v>25.8444</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1">
+        <v>39.962899999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1">
+        <v>17.439499999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1">
+        <v>59.975000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1">
+        <v>36.770499999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1">
+        <v>28.509899999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1">
+        <v>47.462000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="D61" s="1">
+        <f>AVERAGE(D51:D60)</f>
+        <v>39.452269999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3683,6 +4091,49 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6670C40B-BF98-4648-ADDD-E181242406C1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195B7BF9-EFFD-4274-B8DD-C1108D3F340C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895F9586-7E9B-464D-B47A-97CB9E6F8E1C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E3E9D-78F1-4185-B13B-18A9A4AD65AB}">
   <dimension ref="A1:C38"/>
   <sheetViews>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50D2DB2-0DDD-4320-8691-CD2F5F05CC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD42F04-2EC7-4F89-82D8-A065E37FFAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="63">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1729,6 +1729,26 @@
   </si>
   <si>
     <t>max_iter=40000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_iter=60000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVGRAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pupulation=30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upper bound</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2098,10 +2118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2111,6 +2131,7 @@
     <col min="4" max="4" width="15.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2784,7 +2805,7 @@
       </c>
       <c r="C62" s="1"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -2800,8 +2821,11 @@
       <c r="F65" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -2818,7 +2842,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>55</v>
       </c>
@@ -2832,7 +2856,7 @@
         <v>37.689599999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -2846,7 +2870,7 @@
         <v>21.445499999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>55</v>
       </c>
@@ -2861,7 +2885,7 @@
         <v>47.476300000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>55</v>
       </c>
@@ -2872,11 +2896,11 @@
       <c r="D70" s="1">
         <v>23.709099999999999</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="E70" s="2">
+        <v>1387.23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -2891,7 +2915,7 @@
         <v>22.095800000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>55</v>
       </c>
@@ -2902,11 +2926,11 @@
       <c r="D72" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="E72" s="2">
+        <v>6835.78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>55</v>
       </c>
@@ -2917,11 +2941,11 @@
       <c r="D73" s="1">
         <v>75.399600000000007</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="E73" s="2">
+        <v>462.44799999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>55</v>
       </c>
@@ -2936,7 +2960,7 @@
         <v>27.0581</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>55</v>
       </c>
@@ -2947,14 +2971,17 @@
       <c r="D75" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="2">
+        <v>528.24099999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="C76" s="1"/>
+      <c r="E76" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -2964,8 +2991,17 @@
       <c r="D77" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="E77" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>55</v>
       </c>
@@ -2978,8 +3014,11 @@
       <c r="D78" s="1">
         <v>32.190199999999997</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="E78" s="2">
+        <v>22.279199999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>55</v>
       </c>
@@ -2989,11 +3028,14 @@
       <c r="C79" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="D79" s="1">
+        <v>227.29300000000001</v>
+      </c>
+      <c r="E79" s="2">
+        <v>36.223399999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>55</v>
       </c>
@@ -3003,11 +3045,14 @@
       <c r="C80" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="D80" s="1">
+        <v>1540.71</v>
+      </c>
+      <c r="E80" s="2">
+        <v>46.934399999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>55</v>
       </c>
@@ -3020,8 +3065,11 @@
       <c r="D81" s="1">
         <v>47.87</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" s="2">
+        <v>49.5045</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>55</v>
       </c>
@@ -3034,8 +3082,11 @@
       <c r="D82" s="1">
         <v>42.3934</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" s="2">
+        <v>72.665800000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>55</v>
       </c>
@@ -3045,11 +3096,14 @@
       <c r="C83" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="D83" s="1">
+        <v>1282.03</v>
+      </c>
+      <c r="E83" s="2">
+        <v>100.563</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>55</v>
       </c>
@@ -3062,8 +3116,11 @@
       <c r="D84" s="1">
         <v>59.957700000000003</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" s="2">
+        <v>65.480599999999995</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>55</v>
       </c>
@@ -3076,8 +3133,11 @@
       <c r="D85" s="1">
         <v>34.878500000000003</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" s="2">
+        <v>187.37799999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>55</v>
       </c>
@@ -3090,8 +3150,11 @@
       <c r="D86" s="1">
         <v>43.719299999999997</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" s="2">
+        <v>49.392499999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>55</v>
       </c>
@@ -3101,8 +3164,178 @@
       <c r="C87" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="1">
+        <v>2124.13</v>
+      </c>
+      <c r="E87" s="2">
+        <v>98.995199999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" s="1">
+        <f>AVERAGE(D78:D87)</f>
+        <v>543.51720999999998</v>
+      </c>
+      <c r="E88" s="2">
+        <f>AVERAGE(E78:E87)</f>
+        <v>72.941659999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="C89" s="2" t="s">
         <v>54</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E89" s="2">
+        <f>AVERAGE(E78:E87)</f>
+        <v>72.941659999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D90" t="s">
+        <v>51</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="E91" s="2">
+        <v>53.627299999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>55</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="E92" s="2">
+        <v>44.150700000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>55</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="E93" s="2">
+        <v>125.44499999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>55</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="E94" s="2">
+        <v>54.1935</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>55</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="E95" s="2">
+        <v>39.506599999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>55</v>
+      </c>
+      <c r="B96">
+        <v>6</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="E96" s="2">
+        <v>47.227499999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>55</v>
+      </c>
+      <c r="B97">
+        <v>7</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="E97" s="2">
+        <v>33.741799999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>55</v>
+      </c>
+      <c r="B98">
+        <v>8</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="E98" s="2">
+        <v>79.674700000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>55</v>
+      </c>
+      <c r="B99">
+        <v>9</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="E99" s="2">
+        <v>85.144499999999994</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>55</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="E100" s="2">
+        <v>370.62200000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3824,20 +4057,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D45A1A-035D-4F1E-BC30-8A3627752879}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:E16"/>
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3853,8 +4089,14 @@
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3865,7 +4107,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3876,7 +4118,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3887,7 +4129,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3898,7 +4140,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3909,7 +4151,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3920,7 +4162,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3931,7 +4173,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3942,7 +4184,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3953,7 +4195,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3964,17 +4206,17 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:8">
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:8">
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3985,7 +4227,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -3996,7 +4238,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -4007,7 +4249,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -4018,7 +4260,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -4029,7 +4271,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -4040,7 +4282,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -4051,7 +4293,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -4062,7 +4304,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -4073,7 +4315,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -4083,6 +4325,396 @@
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4092,14 +4724,161 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6670C40B-BF98-4648-ADDD-E181242406C1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13">
+        <v>3004</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4107,12 +4886,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195B7BF9-EFFD-4274-B8DD-C1108D3F340C}">
-  <dimension ref="A1"/>
+  <dimension ref="A12:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>4004</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4120,14 +4913,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895F9586-7E9B-464D-B47A-97CB9E6F8E1C}">
-  <dimension ref="A1"/>
+  <dimension ref="A12:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>3004</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD42F04-2EC7-4F89-82D8-A065E37FFAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6CCABA-C56D-4CFB-8576-3AEB6F5B31AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500.1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="64">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1749,6 +1749,10 @@
   </si>
   <si>
     <t>upper bound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEA_IN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2120,7 +2124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
@@ -3349,8 +3353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD6EFFC-BA4E-4954-8C8C-5C7E8E2EF2DD}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3755,7 +3759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -3763,7 +3767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -3771,7 +3775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -3779,7 +3783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -3789,8 +3793,11 @@
       <c r="D38" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -3800,8 +3807,11 @@
       <c r="D39" s="1">
         <v>22.821300000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="3">
+        <v>34.751199999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -3811,8 +3821,11 @@
       <c r="D40" s="1">
         <v>18.106100000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="3">
+        <v>44.543799999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -3822,8 +3835,11 @@
       <c r="D41" s="1">
         <v>11.802199999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="3">
+        <v>10.1935</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -3834,8 +3850,11 @@
       <c r="D42" s="1">
         <v>30.808299999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="3">
+        <v>15.2158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -3847,7 +3866,7 @@
         <v>30.332699999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -3859,7 +3878,7 @@
         <v>13.6275</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -3871,7 +3890,7 @@
         <v>12.792199999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -3883,7 +3902,7 @@
         <v>13.1172</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -3895,7 +3914,7 @@
         <v>40.110900000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -4057,10 +4076,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D45A1A-035D-4F1E-BC30-8A3627752879}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4615,7 +4634,12 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2">
+        <v>328.072</v>
+      </c>
+      <c r="F53">
+        <v>1608.62</v>
+      </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
@@ -4626,7 +4650,9 @@
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
+      <c r="E54" s="2">
+        <v>609.32600000000002</v>
+      </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
@@ -4637,7 +4663,9 @@
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
+      <c r="E55" s="2">
+        <v>2104.75</v>
+      </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
@@ -4648,7 +4676,9 @@
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
+      <c r="E56" s="2">
+        <v>746.048</v>
+      </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
@@ -4659,7 +4689,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
+      <c r="E57" s="2">
+        <v>716.654</v>
+      </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
@@ -4670,7 +4702,9 @@
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="2"/>
+      <c r="E58" s="2">
+        <v>246.767</v>
+      </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
@@ -4681,7 +4715,9 @@
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="2"/>
+      <c r="E59" s="2">
+        <v>429.44400000000002</v>
+      </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
@@ -4692,7 +4728,9 @@
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="2"/>
+      <c r="E60" s="2">
+        <v>646.09500000000003</v>
+      </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
@@ -4703,7 +4741,9 @@
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="2"/>
+      <c r="E61" s="2">
+        <v>2754.49</v>
+      </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
@@ -4714,7 +4754,15 @@
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="2"/>
+      <c r="E62" s="2">
+        <v>1809.58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="E63" s="2">
+        <f>AVERAGE(E53:E62)</f>
+        <v>1039.1226000000001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4724,10 +4772,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6670C40B-BF98-4648-ADDD-E181242406C1}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4742,41 +4790,38 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="B1">
+        <v>3004</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
@@ -4787,7 +4832,7 @@
         <v>55</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
@@ -4798,9 +4843,9 @@
         <v>55</v>
       </c>
       <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
     </row>
@@ -4809,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4820,7 +4865,7 @@
         <v>55</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4831,7 +4876,7 @@
         <v>55</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4842,7 +4887,7 @@
         <v>55</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4853,7 +4898,7 @@
         <v>55</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4864,19 +4909,22 @@
         <v>55</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13">
-        <v>3004</v>
-      </c>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4886,10 +4934,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195B7BF9-EFFD-4274-B8DD-C1108D3F340C}">
-  <dimension ref="A12:B12"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4897,11 +4945,11 @@
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>62</v>
       </c>
-      <c r="B12">
+      <c r="B1">
         <v>4004</v>
       </c>
     </row>
@@ -4913,10 +4961,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895F9586-7E9B-464D-B47A-97CB9E6F8E1C}">
-  <dimension ref="A12:B12"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4924,11 +4972,11 @@
     <col min="1" max="1" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>62</v>
       </c>
-      <c r="B12">
+      <c r="B1">
         <v>3004</v>
       </c>
     </row>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6CCABA-C56D-4CFB-8576-3AEB6F5B31AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFD773D-99D4-4B16-B43F-43BAC39F4A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500.1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="1000.5" sheetId="6" r:id="rId5"/>
     <sheet name="1000.9" sheetId="7" r:id="rId6"/>
     <sheet name="variables" sheetId="4" r:id="rId7"/>
+    <sheet name="data_size" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="84">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1740,10 +1741,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AVGRAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pupulation=30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1753,6 +1750,79 @@
   </si>
   <si>
     <t>HEA_IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pupulation=40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSJC0125.1</t>
+  </si>
+  <si>
+    <t>DSJC0125.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSJC0125.9</t>
+  </si>
+  <si>
+    <t>DSJC0250.1</t>
+  </si>
+  <si>
+    <t>DSJC0250.5</t>
+  </si>
+  <si>
+    <t>DSJC0250.9</t>
+  </si>
+  <si>
+    <t>DSJC0500.1</t>
+  </si>
+  <si>
+    <t>DSJC0500.5</t>
+  </si>
+  <si>
+    <t>DSJC0500.9</t>
+  </si>
+  <si>
+    <t>DSJC1000.1</t>
+  </si>
+  <si>
+    <t>DSJC1000.5</t>
+  </si>
+  <si>
+    <t>DSJC1000.9</t>
+  </si>
+  <si>
+    <t>max_iter=50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_iter=70000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_iter=80000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1811,12 +1881,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1831,7 +1907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1842,6 +1918,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2122,10 +2201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2134,8 +2213,8 @@
     <col min="3" max="3" width="15.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="6" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2809,7 +2888,7 @@
       </c>
       <c r="C62" s="1"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -2825,11 +2904,11 @@
       <c r="F65" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -2846,21 +2925,21 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>55</v>
       </c>
       <c r="B67">
         <v>2</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="8" t="s">
         <v>54</v>
       </c>
       <c r="E67" s="2">
         <v>37.689599999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -2874,7 +2953,7 @@
         <v>21.445499999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>55</v>
       </c>
@@ -2882,14 +2961,14 @@
         <v>4</v>
       </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="1">
+      <c r="D69" s="8">
         <v>69.53</v>
       </c>
       <c r="E69" s="2">
         <v>47.476300000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>55</v>
       </c>
@@ -2900,11 +2979,11 @@
       <c r="D70" s="1">
         <v>23.709099999999999</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="6">
         <v>1387.23</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -2919,7 +2998,7 @@
         <v>22.095800000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>55</v>
       </c>
@@ -2927,14 +3006,14 @@
         <v>7</v>
       </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="6">
         <v>6835.78</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>55</v>
       </c>
@@ -2945,11 +3024,11 @@
       <c r="D73" s="1">
         <v>75.399600000000007</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="6">
         <v>462.44799999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>55</v>
       </c>
@@ -2964,7 +3043,7 @@
         <v>27.0581</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>55</v>
       </c>
@@ -2972,20 +3051,20 @@
         <v>10</v>
       </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="8" t="s">
         <v>54</v>
       </c>
       <c r="E75" s="2">
         <v>528.24099999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:8">
       <c r="C76" s="1"/>
       <c r="E76" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -3001,79 +3080,79 @@
       <c r="F77" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>55</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D78" s="1">
-        <v>32.190199999999997</v>
+        <v>29.710899999999999</v>
       </c>
       <c r="E78" s="2">
         <v>22.279199999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>55</v>
       </c>
       <c r="B79">
         <v>2</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D79" s="1">
-        <v>227.29300000000001</v>
+        <v>31.7179</v>
       </c>
       <c r="E79" s="2">
         <v>36.223399999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>55</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D80" s="1">
-        <v>1540.71</v>
+        <v>45.445099999999996</v>
       </c>
       <c r="E80" s="2">
         <v>46.934399999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>55</v>
       </c>
       <c r="B81">
         <v>4</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D81" s="1">
-        <v>47.87</v>
+      <c r="D81" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="E81" s="2">
         <v>49.5045</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>55</v>
       </c>
@@ -3090,31 +3169,31 @@
         <v>72.665800000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>55</v>
       </c>
       <c r="B83">
         <v>6</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="8">
         <v>1282.03</v>
       </c>
       <c r="E83" s="2">
         <v>100.563</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>55</v>
       </c>
       <c r="B84">
         <v>7</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D84" s="1">
@@ -3124,7 +3203,7 @@
         <v>65.480599999999995</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>55</v>
       </c>
@@ -3141,7 +3220,7 @@
         <v>187.37799999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>55</v>
       </c>
@@ -3158,37 +3237,37 @@
         <v>49.392499999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>55</v>
       </c>
       <c r="B87">
         <v>10</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="8">
         <v>2124.13</v>
       </c>
       <c r="E87" s="2">
         <v>98.995199999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D88" s="1">
         <f>AVERAGE(D78:D87)</f>
-        <v>543.51720999999998</v>
+        <v>410.4425333333333</v>
       </c>
       <c r="E88" s="2">
         <f>AVERAGE(E78:E87)</f>
         <v>72.941659999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:8">
       <c r="C89" s="2" t="s">
         <v>54</v>
       </c>
@@ -3200,9 +3279,9 @@
         <v>72.941659999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>52</v>
@@ -3217,10 +3296,13 @@
         <v>57</v>
       </c>
       <c r="G90" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>55</v>
       </c>
@@ -3231,7 +3313,7 @@
         <v>53.627299999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>55</v>
       </c>
@@ -3239,10 +3321,10 @@
         <v>2</v>
       </c>
       <c r="E92" s="2">
-        <v>44.150700000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>116.342</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>55</v>
       </c>
@@ -3253,7 +3335,7 @@
         <v>125.44499999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>55</v>
       </c>
@@ -3265,7 +3347,7 @@
         <v>54.1935</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>55</v>
       </c>
@@ -3277,7 +3359,7 @@
         <v>39.506599999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>55</v>
       </c>
@@ -3339,7 +3421,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3351,10 +3433,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD6EFFC-BA4E-4954-8C8C-5C7E8E2EF2DD}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3794,7 +3876,7 @@
         <v>51</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3805,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="1">
-        <v>22.821300000000001</v>
+        <v>35.840000000000003</v>
       </c>
       <c r="E39" s="3">
         <v>34.751199999999997</v>
@@ -3819,7 +3901,7 @@
         <v>2</v>
       </c>
       <c r="D40" s="1">
-        <v>18.106100000000001</v>
+        <v>47.875599999999999</v>
       </c>
       <c r="E40" s="3">
         <v>44.543799999999997</v>
@@ -3833,7 +3915,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="1">
-        <v>11.802199999999999</v>
+        <v>11.343999999999999</v>
       </c>
       <c r="E41" s="3">
         <v>10.1935</v>
@@ -3848,7 +3930,7 @@
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
-        <v>30.808299999999999</v>
+        <v>16.4511</v>
       </c>
       <c r="E42" s="3">
         <v>15.2158</v>
@@ -3863,7 +3945,7 @@
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1">
-        <v>30.332699999999999</v>
+        <v>16.5487</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3927,32 +4009,27 @@
       </c>
     </row>
     <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1">
         <f>AVERAGE(D39:D47)</f>
-        <v>21.502044444444444</v>
+        <v>23.078577777777777</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" t="s">
-        <v>51</v>
-      </c>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1">
-        <v>43.610300000000002</v>
+        <v>50</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3960,10 +4037,10 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1">
-        <v>15.3895</v>
+        <v>43.610300000000002</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3971,10 +4048,10 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" s="1">
-        <v>79.558700000000002</v>
+        <v>15.3895</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3982,11 +4059,10 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>4</v>
-      </c>
-      <c r="C54" s="1"/>
+        <v>3</v>
+      </c>
       <c r="D54" s="1">
-        <v>25.8444</v>
+        <v>79.558700000000002</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3994,11 +4070,11 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1">
-        <v>39.962899999999998</v>
+        <v>25.8444</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -4006,11 +4082,11 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1">
-        <v>17.439499999999999</v>
+        <v>39.962899999999998</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4018,11 +4094,11 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1">
-        <v>59.975000000000001</v>
+        <v>17.439499999999999</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4030,11 +4106,11 @@
         <v>55</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1">
-        <v>36.770499999999998</v>
+        <v>59.975000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4042,11 +4118,11 @@
         <v>55</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1">
-        <v>28.509899999999998</v>
+        <v>36.770499999999998</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4054,16 +4130,31 @@
         <v>55</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1">
+        <v>28.509899999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1">
         <v>47.462000000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="D61" s="1">
-        <f>AVERAGE(D51:D60)</f>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="1">
+        <f>AVERAGE(D52:D61)</f>
         <v>39.452269999999999</v>
       </c>
     </row>
@@ -4076,10 +4167,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D45A1A-035D-4F1E-BC30-8A3627752879}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4088,181 +4179,171 @@
     <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" customWidth="1"/>
     <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="6" max="7" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:5">
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
+    <row r="14" spans="1:5">
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -4273,7 +4354,7 @@
         <v>8</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
@@ -4284,7 +4365,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
@@ -4295,7 +4376,7 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
@@ -4306,7 +4387,7 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
@@ -4317,7 +4398,7 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
@@ -4328,7 +4409,7 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
@@ -4339,49 +4420,49 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>57</v>
-      </c>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>55</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -4392,7 +4473,7 @@
         <v>55</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="1"/>
@@ -4403,9 +4484,9 @@
         <v>55</v>
       </c>
       <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
     </row>
@@ -4414,7 +4495,7 @@
         <v>55</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4425,7 +4506,7 @@
         <v>55</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4436,7 +4517,7 @@
         <v>55</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4447,7 +4528,7 @@
         <v>55</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4458,7 +4539,7 @@
         <v>55</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4469,49 +4550,49 @@
         <v>55</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>57</v>
-      </c>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>55</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="1"/>
@@ -4522,7 +4603,7 @@
         <v>55</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="1"/>
@@ -4533,9 +4614,9 @@
         <v>55</v>
       </c>
       <c r="B43">
-        <v>4</v>
-      </c>
-      <c r="C43" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
     </row>
@@ -4544,7 +4625,7 @@
         <v>55</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -4555,7 +4636,7 @@
         <v>55</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -4566,7 +4647,7 @@
         <v>55</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -4577,7 +4658,7 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -4588,180 +4669,209 @@
         <v>55</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>55</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53">
+      <c r="G53" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
         <v>1</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2">
-        <v>328.072</v>
-      </c>
-      <c r="F53">
-        <v>1608.62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54">
-        <v>2</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
       <c r="E54" s="2">
-        <v>609.32600000000002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>328.072</v>
+      </c>
+      <c r="F54">
+        <v>1608.62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="1"/>
       <c r="E55" s="2">
-        <v>2104.75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>609.32600000000002</v>
+      </c>
+      <c r="F55">
+        <v>734.55600000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="6">
+        <v>3000</v>
+      </c>
+      <c r="F56">
+        <v>329.23599999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
         <v>4</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="2">
-        <v>746.048</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>5</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="2">
-        <v>716.654</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>746.048</v>
+      </c>
+      <c r="F57">
+        <v>279.51400000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>55</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="2">
-        <v>246.767</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>716.654</v>
+      </c>
+      <c r="F58" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>55</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="2">
-        <v>429.44400000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>246.767</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>55</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="2">
-        <v>646.09500000000003</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>429.44400000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>55</v>
       </c>
       <c r="B61">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="2">
-        <v>2754.49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>646.09500000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>55</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="2">
+      <c r="E62" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="2">
         <v>1809.58</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="E63" s="2">
-        <f>AVERAGE(E53:E62)</f>
-        <v>1039.1226000000001</v>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" s="2">
+        <f>AVERAGE(E54:E63)</f>
+        <v>1153.1986000000002</v>
       </c>
     </row>
   </sheetData>
@@ -4772,10 +4882,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6670C40B-BF98-4648-ADDD-E181242406C1}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4785,18 +4895,19 @@
     <col min="3" max="3" width="15.5546875" customWidth="1"/>
     <col min="4" max="4" width="15.109375" customWidth="1"/>
     <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1">
         <v>3004</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -4816,7 +4927,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -4827,7 +4938,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -4838,7 +4949,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -4849,7 +4960,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -4860,7 +4971,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -4871,7 +4982,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -4882,7 +4993,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -4893,7 +5004,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -4904,7 +5015,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -4915,7 +5026,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -4925,6 +5036,513 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2">
+        <v>867.625</v>
+      </c>
+      <c r="F29">
+        <v>1818.95</v>
+      </c>
+      <c r="G29" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="6">
+        <v>4000</v>
+      </c>
+      <c r="F30">
+        <v>622.78</v>
+      </c>
+      <c r="G30">
+        <v>1824.97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="6">
+        <v>4000</v>
+      </c>
+      <c r="F31" s="7">
+        <v>4000</v>
+      </c>
+      <c r="G31">
+        <v>1230.23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2">
+        <v>555.56700000000001</v>
+      </c>
+      <c r="F32">
+        <v>1005.43</v>
+      </c>
+      <c r="G32">
+        <v>1738.59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="6">
+        <v>4000</v>
+      </c>
+      <c r="F33">
+        <v>1012.51</v>
+      </c>
+      <c r="G33">
+        <v>1405.03</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2">
+        <v>676.72699999999998</v>
+      </c>
+      <c r="F34">
+        <v>775.44299999999998</v>
+      </c>
+      <c r="G34">
+        <v>1448.97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2">
+        <v>1083.1500000000001</v>
+      </c>
+      <c r="F35">
+        <v>2110.38</v>
+      </c>
+      <c r="G35">
+        <v>840.85400000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="6">
+        <v>4000</v>
+      </c>
+      <c r="F36">
+        <v>1614.46</v>
+      </c>
+      <c r="G36">
+        <v>1120.98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="6">
+        <v>4000</v>
+      </c>
+      <c r="F37">
+        <v>2037.53</v>
+      </c>
+      <c r="G37">
+        <v>2532.88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2">
+        <v>1217.3399999999999</v>
+      </c>
+      <c r="F38">
+        <v>1249.0899999999999</v>
+      </c>
+      <c r="G38" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39">
+        <f>AVERAGE(E29:E38)</f>
+        <v>2440.0409</v>
+      </c>
+      <c r="F39">
+        <f>AVERAGE(F29:F38)</f>
+        <v>1624.6572999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="F42">
+        <v>930.47500000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="F43">
+        <v>2227.2199999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="7">
+        <v>5730</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
+      <c r="F45">
+        <v>1623.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4934,24 +5552,567 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195B7BF9-EFFD-4274-B8DD-C1108D3F340C}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1">
         <v>4004</v>
       </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="7">
+        <v>5000</v>
+      </c>
+      <c r="G29" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="7">
+        <v>32729.200000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4961,24 +6122,623 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895F9586-7E9B-464D-B47A-97CB9E6F8E1C}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1">
         <v>3004</v>
       </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="I16" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="7">
+        <v>4000</v>
+      </c>
+      <c r="G29" s="7">
+        <v>4000</v>
+      </c>
+      <c r="H29">
+        <v>3125.68</v>
+      </c>
+      <c r="I29">
+        <v>1382.02</v>
+      </c>
+      <c r="J29" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="H30" s="7">
+        <v>4000</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="H31" s="7">
+        <v>4522.07</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="I32" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="I42" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5293,4 +7053,221 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EB2E5B-1E72-4892-AA2A-2DD2EB7F2E3A}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2">
+        <v>125</v>
+      </c>
+      <c r="C2">
+        <v>736</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <v>125</v>
+      </c>
+      <c r="C3">
+        <v>3891</v>
+      </c>
+      <c r="D3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>125</v>
+      </c>
+      <c r="C4">
+        <v>6961</v>
+      </c>
+      <c r="D4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>250</v>
+      </c>
+      <c r="C5">
+        <v>3218</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>250</v>
+      </c>
+      <c r="C6">
+        <v>15668</v>
+      </c>
+      <c r="D6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>250</v>
+      </c>
+      <c r="C7">
+        <v>27897</v>
+      </c>
+      <c r="D7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+      <c r="C8">
+        <v>12458</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9">
+        <v>62624</v>
+      </c>
+      <c r="D9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10">
+        <v>500</v>
+      </c>
+      <c r="C10">
+        <v>112437</v>
+      </c>
+      <c r="D10">
+        <v>126</v>
+      </c>
+      <c r="E10">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11">
+        <v>49629</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <v>249826</v>
+      </c>
+      <c r="D12">
+        <v>83</v>
+      </c>
+      <c r="E12">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="C13">
+        <v>449449</v>
+      </c>
+      <c r="D13">
+        <v>224</v>
+      </c>
+      <c r="E13">
+        <v>3004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFD773D-99D4-4B16-B43F-43BAC39F4A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C876E594-30AF-469A-B70D-FEF705636E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500.1" sheetId="1" r:id="rId1"/>
@@ -2201,10 +2201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="C62" s="1"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>55</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>37.689599999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>21.445499999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>55</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>47.476300000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>55</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>1387.23</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>22.095800000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>55</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>6835.78</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>55</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>462.44799999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>55</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>27.0581</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>55</v>
       </c>
@@ -3058,13 +3058,13 @@
         <v>528.24099999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:9">
       <c r="C76" s="1"/>
       <c r="E76" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -3083,8 +3083,11 @@
       <c r="H77" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>55</v>
       </c>
@@ -3100,8 +3103,11 @@
       <c r="E78" s="2">
         <v>22.279199999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78">
+        <v>29.9968</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>55</v>
       </c>
@@ -3118,7 +3124,7 @@
         <v>36.223399999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>55</v>
       </c>
@@ -3435,8 +3441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD6EFFC-BA4E-4954-8C8C-5C7E8E2EF2DD}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3887,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="1">
-        <v>35.840000000000003</v>
+        <v>35.028199999999998</v>
       </c>
       <c r="E39" s="3">
         <v>34.751199999999997</v>
@@ -3901,7 +3907,7 @@
         <v>2</v>
       </c>
       <c r="D40" s="1">
-        <v>47.875599999999999</v>
+        <v>46.152900000000002</v>
       </c>
       <c r="E40" s="3">
         <v>44.543799999999997</v>
@@ -4015,7 +4021,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1">
         <f>AVERAGE(D39:D47)</f>
-        <v>23.078577777777777</v>
+        <v>22.79696666666667</v>
       </c>
     </row>
     <row r="50" spans="1:4">

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C876E594-30AF-469A-B70D-FEF705636E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C61602-B740-4CB1-9F61-DD5A41777D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="87">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1823,6 +1823,18 @@
   </si>
   <si>
     <t>max_iter=80000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态iter=30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态iter=40000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态=30000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2201,10 +2213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2215,6 +2227,7 @@
     <col min="5" max="5" width="15.88671875" style="2" customWidth="1"/>
     <col min="6" max="7" width="15.5546875" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2888,7 +2901,7 @@
       </c>
       <c r="C62" s="1"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -2907,8 +2920,11 @@
       <c r="H65" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="I65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -2925,7 +2941,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>55</v>
       </c>
@@ -2939,7 +2955,7 @@
         <v>37.689599999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -2953,7 +2969,7 @@
         <v>21.445499999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>55</v>
       </c>
@@ -2968,7 +2984,7 @@
         <v>47.476300000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>55</v>
       </c>
@@ -2983,7 +2999,7 @@
         <v>1387.23</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -2998,7 +3014,7 @@
         <v>22.095800000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>55</v>
       </c>
@@ -3013,7 +3029,7 @@
         <v>6835.78</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>55</v>
       </c>
@@ -3028,7 +3044,7 @@
         <v>462.44799999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>55</v>
       </c>
@@ -3043,7 +3059,7 @@
         <v>27.0581</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>55</v>
       </c>
@@ -3058,13 +3074,13 @@
         <v>528.24099999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:10">
       <c r="C76" s="1"/>
       <c r="E76" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -3083,11 +3099,14 @@
       <c r="H77" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I77">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="I77" t="s">
+        <v>84</v>
+      </c>
+      <c r="J77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>55</v>
       </c>
@@ -3104,10 +3123,13 @@
         <v>22.279199999999999</v>
       </c>
       <c r="I78">
-        <v>29.9968</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>23.421099999999999</v>
+      </c>
+      <c r="J78">
+        <v>18.3017</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>55</v>
       </c>
@@ -3123,8 +3145,14 @@
       <c r="E79" s="2">
         <v>36.223399999999998</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="I79">
+        <v>29.711300000000001</v>
+      </c>
+      <c r="J79">
+        <v>82.121700000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>55</v>
       </c>
@@ -3140,8 +3168,11 @@
       <c r="E80" s="2">
         <v>46.934399999999997</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80">
+        <v>38.357199999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>55</v>
       </c>
@@ -3157,8 +3188,11 @@
       <c r="E81" s="2">
         <v>49.5045</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81">
+        <v>53.893599999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>55</v>
       </c>
@@ -3174,8 +3208,11 @@
       <c r="E82" s="2">
         <v>72.665800000000004</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82">
+        <v>23.152799999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>55</v>
       </c>
@@ -3191,8 +3228,11 @@
       <c r="E83" s="2">
         <v>100.563</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83">
+        <v>30.468499999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>55</v>
       </c>
@@ -3208,8 +3248,11 @@
       <c r="E84" s="2">
         <v>65.480599999999995</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84">
+        <v>56.275700000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>55</v>
       </c>
@@ -3225,8 +3268,11 @@
       <c r="E85" s="2">
         <v>187.37799999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85">
+        <v>10.775</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>55</v>
       </c>
@@ -3242,8 +3288,11 @@
       <c r="E86" s="2">
         <v>49.392499999999998</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86">
+        <v>50.822000000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>55</v>
       </c>
@@ -3259,8 +3308,11 @@
       <c r="E87" s="2">
         <v>98.995199999999997</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87">
+        <v>14.825100000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>63</v>
       </c>
@@ -3272,8 +3324,12 @@
         <f>AVERAGE(E78:E87)</f>
         <v>72.941659999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" s="2">
+        <f>AVERAGE(I77:I86)</f>
+        <v>35.208577777777776</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="C89" s="2" t="s">
         <v>54</v>
       </c>
@@ -3285,7 +3341,7 @@
         <v>72.941659999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>60</v>
       </c>
@@ -3308,7 +3364,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>55</v>
       </c>
@@ -3319,7 +3375,7 @@
         <v>53.627299999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>55</v>
       </c>
@@ -3330,7 +3386,7 @@
         <v>116.342</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>55</v>
       </c>
@@ -3341,7 +3397,7 @@
         <v>125.44499999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>55</v>
       </c>
@@ -3353,7 +3409,7 @@
         <v>54.1935</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>55</v>
       </c>
@@ -3365,7 +3421,7 @@
         <v>39.506599999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>55</v>
       </c>
@@ -3441,8 +3497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD6EFFC-BA4E-4954-8C8C-5C7E8E2EF2DD}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3450,7 +3506,7 @@
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4014,7 +4070,7 @@
         <v>8.4746199999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -4024,10 +4080,10 @@
         <v>22.79696666666667</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -4037,8 +4093,11 @@
       <c r="D51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -4048,8 +4107,11 @@
       <c r="D52" s="1">
         <v>43.610300000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="3">
+        <v>40.042099999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -4059,8 +4121,11 @@
       <c r="D53" s="1">
         <v>15.3895</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="3">
+        <v>15.4536</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -4070,8 +4135,11 @@
       <c r="D54" s="1">
         <v>79.558700000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" s="3">
+        <v>25.2683</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -4082,8 +4150,11 @@
       <c r="D55" s="1">
         <v>25.8444</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" s="3">
+        <v>34.0242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -4094,8 +4165,11 @@
       <c r="D56" s="1">
         <v>39.962899999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" s="3">
+        <v>16.625399999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -4106,8 +4180,11 @@
       <c r="D57" s="1">
         <v>17.439499999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" s="3">
+        <v>39.71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -4118,8 +4195,11 @@
       <c r="D58" s="1">
         <v>59.975000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" s="3">
+        <v>33.592799999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -4130,8 +4210,11 @@
       <c r="D59" s="1">
         <v>36.770499999999998</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" s="3">
+        <v>36.534100000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -4142,8 +4225,11 @@
       <c r="D60" s="1">
         <v>28.509899999999998</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" s="3">
+        <v>26.8337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -4154,14 +4240,21 @@
       <c r="D61" s="1">
         <v>47.462000000000003</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" s="3">
+        <v>44.168500000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="D62" s="1">
         <f>AVERAGE(D52:D61)</f>
         <v>39.452269999999999</v>
+      </c>
+      <c r="E62" s="1">
+        <f>AVERAGE(E52:E61)</f>
+        <v>31.225269999999995</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4984,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C61602-B740-4CB1-9F61-DD5A41777D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9A38C3-89B3-4CB1-B6E0-A3DD5133D2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500.1" sheetId="1" r:id="rId1"/>
     <sheet name="500.5" sheetId="2" r:id="rId2"/>
-    <sheet name="500.9" sheetId="3" r:id="rId3"/>
-    <sheet name="1000.1" sheetId="5" r:id="rId4"/>
-    <sheet name="1000.5" sheetId="6" r:id="rId5"/>
-    <sheet name="1000.9" sheetId="7" r:id="rId6"/>
-    <sheet name="variables" sheetId="4" r:id="rId7"/>
-    <sheet name="data_size" sheetId="8" r:id="rId8"/>
+    <sheet name="500.5-48" sheetId="10" r:id="rId3"/>
+    <sheet name="500.9" sheetId="3" r:id="rId4"/>
+    <sheet name="1000.1" sheetId="5" r:id="rId5"/>
+    <sheet name="1000.5" sheetId="6" r:id="rId6"/>
+    <sheet name="1000.9" sheetId="7" r:id="rId7"/>
+    <sheet name="variables" sheetId="4" r:id="rId8"/>
+    <sheet name="data_size" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="95">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1835,6 +1837,38 @@
   </si>
   <si>
     <t>动态=30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态40000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEAN TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态=40000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态=50000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1842,10 +1876,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1919,7 +1954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1933,6 +1968,7 @@
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2215,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3097,7 +3133,7 @@
         <v>57</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="I77" t="s">
         <v>84</v>
@@ -3122,8 +3158,11 @@
       <c r="E78" s="2">
         <v>22.279199999999999</v>
       </c>
+      <c r="H78">
+        <v>53.326599999999999</v>
+      </c>
       <c r="I78">
-        <v>23.421099999999999</v>
+        <v>25.072700000000001</v>
       </c>
       <c r="J78">
         <v>18.3017</v>
@@ -3144,6 +3183,9 @@
       </c>
       <c r="E79" s="2">
         <v>36.223399999999998</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="I79">
         <v>29.711300000000001</v>
@@ -3326,7 +3368,7 @@
       </c>
       <c r="I88" s="2">
         <f>AVERAGE(I77:I86)</f>
-        <v>35.208577777777776</v>
+        <v>35.392088888888878</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3493,12 +3535,216 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED288E8-003C-4A82-BC01-BAAF7FCF3F70}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="9" style="9" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>500.1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1">
+        <v>500.5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="9">
+        <v>23.421099999999999</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="9">
+        <v>40.042099999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="9">
+        <v>29.711300000000001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="9">
+        <v>15.4536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="9">
+        <v>38.357199999999999</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="9">
+        <v>25.2683</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="9">
+        <v>53.893599999999999</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="9">
+        <v>34.0242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="9">
+        <v>23.152799999999999</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="9">
+        <v>16.625399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="9">
+        <v>30.468499999999999</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="9">
+        <v>39.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="9">
+        <v>56.275700000000001</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="9">
+        <v>33.592799999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="9">
+        <v>10.775</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="9">
+        <v>36.534100000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="9">
+        <v>50.822000000000003</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="9">
+        <v>26.8337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="9">
+        <v>14.825100000000001</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="9">
+        <v>44.168500000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="9">
+        <v>35.208577777777776</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="9">
+        <v>31.225269999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD6EFFC-BA4E-4954-8C8C-5C7E8E2EF2DD}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3506,7 +3752,7 @@
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4265,11 +4511,513 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A64073-A659-4E0B-A57C-5317A7C4EDA7}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1">
+        <v>35.028199999999998</v>
+      </c>
+      <c r="E2" s="3">
+        <v>34.751199999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1">
+        <v>46.152900000000002</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44.543799999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1">
+        <v>11.343999999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10.1935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>16.4511</v>
+      </c>
+      <c r="E5" s="3">
+        <v>15.2158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>16.5487</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>13.6275</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>12.792199999999999</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>13.1172</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>40.110900000000001</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>8.4746199999999998</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <f>AVERAGE(D2:D10)</f>
+        <v>22.79696666666667</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3">
+        <v>490.09699999999998</v>
+      </c>
+      <c r="F15">
+        <v>122.562</v>
+      </c>
+      <c r="G15">
+        <v>121.61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16">
+        <v>137.602</v>
+      </c>
+      <c r="G16">
+        <v>87.183700000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17">
+        <v>158.84100000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18">
+        <v>390.44799999999998</v>
+      </c>
+      <c r="G18">
+        <v>185.215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="G19">
+        <v>939.99900000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28">
+        <v>168.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29">
+        <v>300.97800000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D45A1A-035D-4F1E-BC30-8A3627752879}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4279,6 +5027,7 @@
     <col min="4" max="4" width="15.5546875" customWidth="1"/>
     <col min="5" max="5" width="15.21875" customWidth="1"/>
     <col min="6" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4774,7 +5523,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -4785,7 +5534,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -4796,7 +5545,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -4818,8 +5567,11 @@
       <c r="G53" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -4835,7 +5587,7 @@
         <v>1608.62</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -4851,7 +5603,7 @@
         <v>734.55600000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -4867,7 +5619,7 @@
         <v>329.23599999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -4883,7 +5635,7 @@
         <v>279.51400000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -4899,7 +5651,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -4912,7 +5664,7 @@
         <v>246.767</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -4925,7 +5677,7 @@
         <v>429.44400000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -4938,7 +5690,7 @@
         <v>646.09500000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -4951,7 +5703,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -4964,7 +5716,7 @@
         <v>1809.58</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -4979,7 +5731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6670C40B-BF98-4648-ADDD-E181242406C1}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -5649,7 +6401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195B7BF9-EFFD-4274-B8DD-C1108D3F340C}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -6219,7 +6971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895F9586-7E9B-464D-B47A-97CB9E6F8E1C}">
   <dimension ref="A1:J51"/>
   <sheetViews>
@@ -6845,7 +7597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E3E9D-78F1-4185-B13B-18A9A4AD65AB}">
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -7154,7 +7906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EB2E5B-1E72-4892-AA2A-2DD2EB7F2E3A}">
   <dimension ref="A1:E13"/>
   <sheetViews>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9A38C3-89B3-4CB1-B6E0-A3DD5133D2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CA88E1-CBDC-4077-8B7E-A7CB4D9CD0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500.1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="96">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1869,6 +1869,10 @@
   </si>
   <si>
     <t>动态=50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态30000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2251,7 +2255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
@@ -3162,7 +3166,7 @@
         <v>53.326599999999999</v>
       </c>
       <c r="I78">
-        <v>25.072700000000001</v>
+        <v>23.352399999999999</v>
       </c>
       <c r="J78">
         <v>18.3017</v>
@@ -3368,7 +3372,7 @@
       </c>
       <c r="I88" s="2">
         <f>AVERAGE(I77:I86)</f>
-        <v>35.392088888888878</v>
+        <v>35.200944444444445</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3736,6 +3740,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3744,7 +3749,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:E62"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4515,7 +4520,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5014,10 +5019,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D45A1A-035D-4F1E-BC30-8A3627752879}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5028,6 +5033,7 @@
     <col min="5" max="5" width="15.21875" customWidth="1"/>
     <col min="6" max="7" width="15.44140625" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5360,7 +5366,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -5371,7 +5377,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -5382,7 +5388,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -5393,7 +5399,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -5404,7 +5410,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -5415,7 +5421,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -5434,8 +5440,17 @@
       <c r="F40" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -5445,8 +5460,11 @@
       <c r="C41" s="2"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="I41" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -5457,7 +5475,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -5468,7 +5486,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -5479,7 +5497,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -5490,7 +5508,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -5501,7 +5519,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -5512,7 +5530,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -5523,7 +5541,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -5534,7 +5552,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -5545,7 +5563,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -5568,10 +5586,13 @@
         <v>81</v>
       </c>
       <c r="H53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -5586,8 +5607,11 @@
       <c r="F54">
         <v>1608.62</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -5602,8 +5626,11 @@
       <c r="F55">
         <v>734.55600000000004</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55">
+        <v>1868.97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -5618,8 +5645,11 @@
       <c r="F56">
         <v>329.23599999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56">
+        <v>260.78800000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -5634,8 +5664,11 @@
       <c r="F57">
         <v>279.51400000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -5650,8 +5683,11 @@
       <c r="F58" s="7">
         <v>3000</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -5664,7 +5700,7 @@
         <v>246.767</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -5677,7 +5713,7 @@
         <v>429.44400000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -5690,7 +5726,7 @@
         <v>646.09500000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -5703,7 +5739,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -5716,7 +5752,7 @@
         <v>1809.58</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -5735,7 +5771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6670C40B-BF98-4648-ADDD-E181242406C1}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CA88E1-CBDC-4077-8B7E-A7CB4D9CD0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19988690-C1F4-4129-AEDC-8304A15A451A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500.1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="97">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1873,6 +1873,10 @@
   </si>
   <si>
     <t>动态30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time (tt*0.6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2255,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2270,7 +2274,7 @@
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2286,8 +2290,11 @@
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2305,7 +2312,7 @@
         <v>1230652.7509508354</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2323,7 +2330,7 @@
         <v>1340042.3573083433</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2331,7 +2338,7 @@
         <v>843.38599999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2349,7 +2356,7 @@
         <v>1196436.3041124835</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2367,7 +2374,7 @@
         <v>1234898.0373285315</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2385,7 +2392,7 @@
         <v>1218918.2100864232</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2403,7 +2410,7 @@
         <v>1217720.3529228782</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2421,7 +2428,7 @@
         <v>1218362.4541254023</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2439,7 +2446,7 @@
         <v>1126643.5807029326</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2457,7 +2464,7 @@
         <v>1207436.9577455926</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2475,7 +2482,7 @@
         <v>1299296.31495632</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2504,7 +2511,7 @@
         <v>123604301</v>
       </c>
       <c r="D17" s="1">
-        <v>125.64700000000001</v>
+        <v>122.89700000000001</v>
       </c>
       <c r="E17" s="2">
         <v>983741</v>
@@ -2521,7 +2528,7 @@
         <v>91729575</v>
       </c>
       <c r="D18" s="1">
-        <v>97.2273</v>
+        <v>94.569299999999998</v>
       </c>
       <c r="E18" s="2">
         <v>943455</v>
@@ -2538,7 +2545,7 @@
         <v>119326345</v>
       </c>
       <c r="D19" s="1">
-        <v>121.51</v>
+        <v>118.129</v>
       </c>
       <c r="E19" s="2">
         <v>982032</v>
@@ -2551,6 +2558,9 @@
       <c r="B20">
         <v>4</v>
       </c>
+      <c r="D20" s="1">
+        <v>79.509799999999998</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
@@ -2559,6 +2569,9 @@
       <c r="B21">
         <v>5</v>
       </c>
+      <c r="D21" s="1">
+        <v>282.471</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
@@ -2567,6 +2580,9 @@
       <c r="B22">
         <v>6</v>
       </c>
+      <c r="D22" s="1">
+        <v>313.25700000000001</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
@@ -2575,6 +2591,9 @@
       <c r="B23">
         <v>7</v>
       </c>
+      <c r="D23" s="1">
+        <v>34.959400000000002</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
@@ -2583,6 +2602,9 @@
       <c r="B24">
         <v>8</v>
       </c>
+      <c r="D24" s="1">
+        <v>111.342</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
@@ -2591,6 +2613,9 @@
       <c r="B25">
         <v>9</v>
       </c>
+      <c r="D25" s="1">
+        <v>394.36399999999998</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
@@ -2598,6 +2623,18 @@
       </c>
       <c r="B26">
         <v>10</v>
+      </c>
+      <c r="D26" s="1">
+        <v>28.801300000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="1">
+        <f>AVERAGE(D17:D26)</f>
+        <v>158.02998000000002</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3748,7 +3785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD6EFFC-BA4E-4954-8C8C-5C7E8E2EF2DD}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
@@ -5021,7 +5058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D45A1A-035D-4F1E-BC30-8A3627752879}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19988690-C1F4-4129-AEDC-8304A15A451A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC10910-1EE2-4941-A1CB-924E16913665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="95">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,14 +58,6 @@
   </si>
   <si>
     <t>Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector&lt;int&gt; tabu_tenure_table_i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2257,10 +2249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2288,15 +2280,15 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2314,1259 +2306,1276 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>123604301</v>
+        <v>91729575</v>
       </c>
       <c r="D3" s="1">
-        <v>92.239099999999993</v>
+        <v>76.668999999999997</v>
       </c>
       <c r="E3" s="2">
-        <f>C3/D3</f>
-        <v>1340042.3573083433</v>
+        <f t="shared" ref="E3:E11" si="0">C3/D3</f>
+        <v>1196436.3041124835</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>119326345</v>
+      </c>
       <c r="D4" s="1">
-        <v>843.38599999999997</v>
+        <v>96.628500000000003</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>1234898.0373285315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>78869859</v>
+      </c>
+      <c r="D5" s="1">
+        <v>64.704800000000006</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>1218918.2100864232</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>91729575</v>
+        <v>258364945</v>
       </c>
       <c r="D6" s="1">
-        <v>76.668999999999997</v>
+        <v>212.17099999999999</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ref="E6:E14" si="0">C6/D6</f>
-        <v>1196436.3041124835</v>
+        <f t="shared" si="0"/>
+        <v>1217720.3529228782</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>119326345</v>
+        <v>312726838</v>
       </c>
       <c r="D7" s="1">
-        <v>96.628500000000003</v>
+        <v>256.678</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>1234898.0373285315</v>
+        <v>1218362.4541254023</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
       <c r="C8" s="2">
-        <v>78869859</v>
+        <v>32209388</v>
       </c>
       <c r="D8" s="1">
-        <v>64.704800000000006</v>
+        <v>28.588799999999999</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>1218918.2100864232</v>
+        <v>1126643.5807029326</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2">
-        <v>258364945</v>
+        <v>107452109</v>
       </c>
       <c r="D9" s="1">
-        <v>212.17099999999999</v>
+        <v>88.991900000000001</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>1217720.3529228782</v>
+        <v>1207436.9577455926</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>312726838</v>
+        <v>417779635</v>
       </c>
       <c r="D10" s="1">
-        <v>256.678</v>
+        <v>321.54300000000001</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>1218362.4541254023</v>
+        <v>1299296.31495632</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>32209388</v>
+        <v>28009744</v>
       </c>
       <c r="D11" s="1">
-        <v>28.588799999999999</v>
+        <v>23.5991</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>1126643.5807029326</v>
+        <v>1186898.822412719</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2">
-        <v>107452109</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1">
-        <v>88.991900000000001</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>1207436.9577455926</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2">
-        <v>417779635</v>
-      </c>
-      <c r="D13" s="1">
-        <v>321.54300000000001</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>1299296.31495632</v>
+        <f>AVERAGE(D2:D11)</f>
+        <v>127.00120999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>123604301</v>
+      </c>
+      <c r="D14" s="1">
+        <v>122.89700000000001</v>
+      </c>
+      <c r="E14" s="2">
+        <v>983741</v>
+      </c>
+      <c r="F14">
+        <v>122.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>91729575</v>
+      </c>
+      <c r="D15" s="1">
+        <v>94.569299999999998</v>
+      </c>
+      <c r="E15" s="2">
+        <v>943455</v>
+      </c>
+      <c r="F15">
+        <v>94.084699999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>119326345</v>
+      </c>
+      <c r="D16" s="1">
+        <v>118.129</v>
+      </c>
+      <c r="E16" s="2">
+        <v>982032</v>
+      </c>
+      <c r="F16">
+        <v>120.256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>79.509799999999998</v>
+      </c>
+      <c r="F17">
+        <v>80.225200000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>282.471</v>
+      </c>
+      <c r="F18">
+        <v>274.17500000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>313.25700000000001</v>
+      </c>
+      <c r="F19">
+        <v>312.73099999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
         <v>7</v>
       </c>
-      <c r="B14">
+      <c r="D20" s="1">
+        <v>34.959400000000002</v>
+      </c>
+      <c r="F20">
+        <v>37.278799999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1">
+        <v>111.342</v>
+      </c>
+      <c r="F21">
+        <v>115.81699999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1">
+        <v>394.36399999999998</v>
+      </c>
+      <c r="F22">
+        <v>389.22199999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
         <v>10</v>
       </c>
-      <c r="C14" s="2">
-        <v>28009744</v>
-      </c>
-      <c r="D14" s="1">
-        <v>23.5991</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>1186898.822412719</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
+      <c r="D23" s="1">
+        <v>28.801300000000001</v>
+      </c>
+      <c r="F23">
+        <v>28.402699999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1">
+        <f>AVERAGE(D14:D23)</f>
+        <v>158.02998000000002</v>
+      </c>
+      <c r="F24" s="1">
+        <f>AVERAGE(F14:F23)</f>
+        <v>157.44124000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
         <v>1</v>
       </c>
-      <c r="C17" s="2">
-        <v>123604301</v>
-      </c>
-      <c r="D17" s="1">
-        <v>122.89700000000001</v>
-      </c>
-      <c r="E17" s="2">
-        <v>983741</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
+      <c r="C26" s="2">
+        <v>172805497</v>
+      </c>
+      <c r="D26" s="1">
+        <v>388.80200000000002</v>
+      </c>
+      <c r="E26" s="2">
+        <v>444456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
         <v>2</v>
       </c>
-      <c r="C18" s="2">
-        <v>91729575</v>
-      </c>
-      <c r="D18" s="1">
-        <v>94.569299999999998</v>
-      </c>
-      <c r="E18" s="2">
-        <v>943455</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19">
+      <c r="C27" s="2">
+        <v>51180986</v>
+      </c>
+      <c r="D27" s="1">
+        <v>122.26600000000001</v>
+      </c>
+      <c r="E27" s="2">
+        <v>418605</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
         <v>3</v>
       </c>
-      <c r="C19" s="2">
-        <v>119326345</v>
-      </c>
-      <c r="D19" s="1">
-        <v>118.129</v>
-      </c>
-      <c r="E19" s="2">
-        <v>982032</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
+      <c r="C28" s="2">
+        <v>164547891</v>
+      </c>
+      <c r="D28" s="1">
+        <v>375.36</v>
+      </c>
+      <c r="E28" s="2">
+        <v>438373</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
         <v>4</v>
       </c>
-      <c r="D20" s="1">
-        <v>79.509799999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="D21" s="1">
-        <v>282.471</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
         <v>6</v>
       </c>
-      <c r="D22" s="1">
-        <v>313.25700000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23">
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="1">
-        <v>34.959400000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1">
-        <v>111.342</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25">
-        <v>9</v>
-      </c>
-      <c r="D25" s="1">
-        <v>394.36399999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26">
-        <v>10</v>
-      </c>
-      <c r="D26" s="1">
-        <v>28.801300000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="1">
-        <f>AVERAGE(D17:D26)</f>
-        <v>158.02998000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>172805497</v>
-      </c>
-      <c r="D29" s="1">
-        <v>388.80200000000002</v>
-      </c>
-      <c r="E29" s="2">
-        <v>444456</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" s="2">
-        <v>51180986</v>
-      </c>
-      <c r="D30" s="1">
-        <v>122.26600000000001</v>
-      </c>
-      <c r="E30" s="2">
-        <v>418605</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31" s="2">
-        <v>164547891</v>
-      </c>
-      <c r="D31" s="1">
-        <v>375.36</v>
-      </c>
-      <c r="E31" s="2">
-        <v>438373</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>9</v>
-      </c>
       <c r="B32">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
         <v>9</v>
-      </c>
-      <c r="B34">
-        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38">
-        <v>10</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>39.868499999999997</v>
+      </c>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>28.5425</v>
       </c>
       <c r="E41"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C42" s="1"/>
       <c r="D42" s="1">
-        <v>39.868499999999997</v>
+        <v>76.474500000000006</v>
       </c>
       <c r="E42"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>54</v>
+        <v>5</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1">
+        <v>26.671900000000001</v>
       </c>
       <c r="E43"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1">
-        <v>28.5425</v>
+        <v>7.6248500000000003</v>
       </c>
       <c r="E44"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="1">
-        <v>76.474500000000006</v>
-      </c>
       <c r="E45"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="1">
-        <v>26.671900000000001</v>
-      </c>
       <c r="E46"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="1">
-        <v>7.6248500000000003</v>
-      </c>
       <c r="E47"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C48" s="1"/>
       <c r="E48"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>38.347799999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>35.117199999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57">
         <v>8</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="E49"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58">
         <v>9</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="E50"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59">
         <v>10</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="E51"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D62" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>35.027200000000001</v>
+      </c>
+      <c r="E63" s="2">
+        <v>16.697099999999999</v>
+      </c>
+      <c r="F63" t="s">
         <v>52</v>
       </c>
-      <c r="D52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1">
-        <v>38.347799999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54">
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64">
         <v>2</v>
       </c>
-      <c r="D54" s="1">
-        <v>35.117199999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57">
-        <v>5</v>
-      </c>
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58">
-        <v>6</v>
-      </c>
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59">
-        <v>7</v>
-      </c>
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60">
-        <v>8</v>
-      </c>
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61">
-        <v>9</v>
-      </c>
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62">
-        <v>10</v>
-      </c>
-      <c r="C62" s="1"/>
+      <c r="D64" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="2">
+        <v>37.689599999999999</v>
+      </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" t="s">
-        <v>51</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I65" t="s">
-        <v>84</v>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1">
+        <v>25.926200000000001</v>
+      </c>
+      <c r="E65" s="2">
+        <v>21.445499999999999</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1">
-        <v>35.027200000000001</v>
+        <v>4</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="8">
+        <v>69.53</v>
       </c>
       <c r="E66" s="2">
-        <v>16.697099999999999</v>
-      </c>
-      <c r="F66" t="s">
-        <v>54</v>
+        <v>47.476300000000002</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B67">
-        <v>2</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E67" s="2">
-        <v>37.689599999999999</v>
+        <v>5</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1">
+        <v>23.709099999999999</v>
+      </c>
+      <c r="E67" s="6">
+        <v>1387.23</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B68">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C68" s="1"/>
       <c r="D68" s="1">
-        <v>25.926200000000001</v>
+        <v>6.8328199999999999</v>
       </c>
       <c r="E68" s="2">
-        <v>21.445499999999999</v>
+        <v>22.095800000000001</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="8">
-        <v>69.53</v>
-      </c>
-      <c r="E69" s="2">
-        <v>47.476300000000002</v>
+      <c r="D69" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E69" s="6">
+        <v>6835.78</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1">
-        <v>23.709099999999999</v>
+        <v>75.399600000000007</v>
       </c>
       <c r="E70" s="6">
-        <v>1387.23</v>
+        <v>462.44799999999998</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1">
-        <v>6.8328199999999999</v>
+        <v>15.4695</v>
       </c>
       <c r="E71" s="2">
-        <v>22.095800000000001</v>
+        <v>27.0581</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E72" s="6">
-        <v>6835.78</v>
+        <v>52</v>
+      </c>
+      <c r="E72" s="2">
+        <v>528.24099999999999</v>
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73">
-        <v>8</v>
-      </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="1">
-        <v>75.399600000000007</v>
-      </c>
-      <c r="E73" s="6">
-        <v>462.44799999999998</v>
+      <c r="E73" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B74">
-        <v>9</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1">
-        <v>15.4695</v>
-      </c>
-      <c r="E74" s="2">
-        <v>27.0581</v>
+      <c r="H74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I74" t="s">
+        <v>82</v>
+      </c>
+      <c r="J74" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B75">
-        <v>10</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="8" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" s="1">
+        <v>29.710899999999999</v>
       </c>
       <c r="E75" s="2">
-        <v>528.24099999999999</v>
+        <v>22.279199999999999</v>
+      </c>
+      <c r="H75">
+        <v>53.326599999999999</v>
+      </c>
+      <c r="I75">
+        <v>23.352399999999999</v>
+      </c>
+      <c r="J75">
+        <v>18.3017</v>
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="C76" s="1"/>
-      <c r="E76" s="2" t="s">
-        <v>54</v>
+      <c r="A76" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="1">
+        <v>31.7179</v>
+      </c>
+      <c r="E76" s="2">
+        <v>36.223399999999998</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I76">
+        <v>29.711300000000001</v>
+      </c>
+      <c r="J76">
+        <v>82.121700000000004</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C77" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D77" t="s">
-        <v>51</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I77" t="s">
-        <v>84</v>
-      </c>
-      <c r="J77" t="s">
-        <v>85</v>
+      <c r="D77" s="1">
+        <v>45.445099999999996</v>
+      </c>
+      <c r="E77" s="2">
+        <v>46.934399999999997</v>
+      </c>
+      <c r="I77">
+        <v>38.357199999999999</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D78" s="1">
-        <v>29.710899999999999</v>
+        <v>4</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E78" s="2">
-        <v>22.279199999999999</v>
-      </c>
-      <c r="H78">
-        <v>53.326599999999999</v>
+        <v>49.5045</v>
       </c>
       <c r="I78">
-        <v>23.352399999999999</v>
-      </c>
-      <c r="J78">
-        <v>18.3017</v>
+        <v>53.893599999999999</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B79">
-        <v>2</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>54</v>
+        <v>5</v>
+      </c>
+      <c r="C79" s="1">
+        <v>8.3785399999999992</v>
       </c>
       <c r="D79" s="1">
-        <v>31.7179</v>
+        <v>42.3934</v>
       </c>
       <c r="E79" s="2">
-        <v>36.223399999999998</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>54</v>
+        <v>72.665800000000004</v>
       </c>
       <c r="I79">
-        <v>29.711300000000001</v>
-      </c>
-      <c r="J79">
-        <v>82.121700000000004</v>
+        <v>23.152799999999999</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B80">
-        <v>3</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D80" s="1">
-        <v>45.445099999999996</v>
+        <v>6</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" s="8">
+        <v>1282.03</v>
       </c>
       <c r="E80" s="2">
-        <v>46.934399999999997</v>
+        <v>100.563</v>
       </c>
       <c r="I80">
-        <v>38.357199999999999</v>
+        <v>30.468499999999999</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="D81" s="1">
+        <v>59.957700000000003</v>
       </c>
       <c r="E81" s="2">
-        <v>49.5045</v>
+        <v>65.480599999999995</v>
       </c>
       <c r="I81">
-        <v>53.893599999999999</v>
+        <v>56.275700000000001</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C82" s="1">
-        <v>8.3785399999999992</v>
+        <v>28.121500000000001</v>
       </c>
       <c r="D82" s="1">
-        <v>42.3934</v>
+        <v>34.878500000000003</v>
       </c>
       <c r="E82" s="2">
-        <v>72.665800000000004</v>
+        <v>187.37799999999999</v>
       </c>
       <c r="I82">
-        <v>23.152799999999999</v>
+        <v>10.775</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B83">
-        <v>6</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D83" s="8">
-        <v>1282.03</v>
+        <v>9</v>
+      </c>
+      <c r="C83" s="1">
+        <v>26.840900000000001</v>
+      </c>
+      <c r="D83" s="1">
+        <v>43.719299999999997</v>
       </c>
       <c r="E83" s="2">
-        <v>100.563</v>
+        <v>49.392499999999998</v>
       </c>
       <c r="I83">
-        <v>30.468499999999999</v>
+        <v>50.822000000000003</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B84">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D84" s="1">
-        <v>59.957700000000003</v>
+        <v>52</v>
+      </c>
+      <c r="D84" s="8">
+        <v>2124.13</v>
       </c>
       <c r="E84" s="2">
-        <v>65.480599999999995</v>
+        <v>98.995199999999997</v>
       </c>
       <c r="I84">
-        <v>56.275700000000001</v>
+        <v>14.825100000000001</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>55</v>
-      </c>
-      <c r="B85">
-        <v>8</v>
-      </c>
-      <c r="C85" s="1">
-        <v>28.121500000000001</v>
+        <v>61</v>
       </c>
       <c r="D85" s="1">
-        <v>34.878500000000003</v>
+        <f>AVERAGE(D75:D84)</f>
+        <v>410.4425333333333</v>
       </c>
       <c r="E85" s="2">
-        <v>187.37799999999999</v>
-      </c>
-      <c r="I85">
-        <v>10.775</v>
+        <f>AVERAGE(E75:E84)</f>
+        <v>72.941659999999999</v>
+      </c>
+      <c r="I85" s="2">
+        <f>AVERAGE(I74:I83)</f>
+        <v>35.200944444444445</v>
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" t="s">
-        <v>55</v>
-      </c>
-      <c r="B86">
-        <v>9</v>
-      </c>
-      <c r="C86" s="1">
-        <v>26.840900000000001</v>
-      </c>
-      <c r="D86" s="1">
-        <v>43.719299999999997</v>
+      <c r="C86" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E86" s="2">
-        <v>49.392499999999998</v>
-      </c>
-      <c r="I86">
-        <v>50.822000000000003</v>
+        <f>AVERAGE(E75:E84)</f>
+        <v>72.941659999999999</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D87" t="s">
+        <v>49</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B87">
-        <v>10</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D87" s="8">
-        <v>2124.13</v>
-      </c>
-      <c r="E87" s="2">
-        <v>98.995199999999997</v>
-      </c>
-      <c r="I87">
-        <v>14.825100000000001</v>
+      <c r="G87" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>63</v>
-      </c>
-      <c r="D88" s="1">
-        <f>AVERAGE(D78:D87)</f>
-        <v>410.4425333333333</v>
+        <v>53</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
       </c>
       <c r="E88" s="2">
-        <f>AVERAGE(E78:E87)</f>
-        <v>72.941659999999999</v>
-      </c>
-      <c r="I88" s="2">
-        <f>AVERAGE(I77:I86)</f>
-        <v>35.200944444444445</v>
+        <v>53.627299999999998</v>
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="C89" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>54</v>
+      <c r="A89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
       </c>
       <c r="E89" s="2">
-        <f>AVERAGE(E78:E87)</f>
-        <v>72.941659999999999</v>
+        <v>116.342</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>60</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D90" t="s">
-        <v>51</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="E90" s="2">
+        <v>125.44499999999999</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B91">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C91" s="1"/>
       <c r="E91" s="2">
-        <v>53.627299999999998</v>
+        <v>54.1935</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B92">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C92" s="1"/>
       <c r="E92" s="2">
-        <v>116.342</v>
+        <v>39.506599999999999</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B93">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C93" s="1"/>
       <c r="E93" s="2">
-        <v>125.44499999999999</v>
+        <v>47.227499999999999</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C94" s="1"/>
       <c r="E94" s="2">
-        <v>54.1935</v>
+        <v>33.741799999999998</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C95" s="1"/>
       <c r="E95" s="2">
-        <v>39.506599999999999</v>
+        <v>79.674700000000001</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B96">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C96" s="1"/>
       <c r="E96" s="2">
-        <v>47.227499999999999</v>
+        <v>85.144499999999994</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B97">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C97" s="1"/>
       <c r="E97" s="2">
-        <v>33.741799999999998</v>
+        <v>370.62200000000001</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>55</v>
-      </c>
-      <c r="B98">
-        <v>8</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="E98" s="2">
-        <v>79.674700000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>55</v>
-      </c>
-      <c r="B99">
-        <v>9</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="E99" s="2">
-        <v>85.144499999999994</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>55</v>
-      </c>
-      <c r="B100">
-        <v>10</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="E100" s="2">
-        <v>370.62200000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3597,38 +3606,38 @@
         <v>500.1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D1">
         <v>500.5</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="9">
         <v>23.421099999999999</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" s="9">
         <v>40.042099999999998</v>
@@ -3636,13 +3645,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="9">
         <v>29.711300000000001</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" s="9">
         <v>15.4536</v>
@@ -3650,13 +3659,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="9">
         <v>38.357199999999999</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" s="9">
         <v>25.2683</v>
@@ -3664,13 +3673,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="9">
         <v>53.893599999999999</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E6" s="9">
         <v>34.0242</v>
@@ -3678,13 +3687,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="9">
         <v>23.152799999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="9">
         <v>16.625399999999999</v>
@@ -3692,13 +3701,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="9">
         <v>30.468499999999999</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="9">
         <v>39.71</v>
@@ -3706,13 +3715,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="9">
         <v>56.275700000000001</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" s="9">
         <v>33.592799999999997</v>
@@ -3720,13 +3729,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" s="9">
         <v>10.775</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" s="9">
         <v>36.534100000000002</v>
@@ -3734,13 +3743,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="9">
         <v>50.822000000000003</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" s="9">
         <v>26.8337</v>
@@ -3748,13 +3757,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="9">
         <v>14.825100000000001</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E12" s="9">
         <v>44.168500000000002</v>
@@ -3762,13 +3771,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13" s="9">
         <v>35.208577777777776</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E13" s="9">
         <v>31.225269999999995</v>
@@ -3811,12 +3820,12 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3834,7 +3843,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3852,7 +3861,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3870,7 +3879,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3888,7 +3897,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3906,7 +3915,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -3924,7 +3933,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -3942,7 +3951,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -3960,7 +3969,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -3978,7 +3987,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -3996,7 +4005,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -4013,7 +4022,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -4030,7 +4039,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -4047,7 +4056,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -4056,7 +4065,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -4065,7 +4074,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -4074,7 +4083,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -4083,7 +4092,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -4092,7 +4101,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -4101,7 +4110,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -4110,7 +4119,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4127,7 +4136,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -4144,7 +4153,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -4161,7 +4170,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -4169,7 +4178,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -4177,7 +4186,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -4185,7 +4194,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -4193,7 +4202,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -4201,7 +4210,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B34">
         <v>9</v>
@@ -4209,7 +4218,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <v>10</v>
@@ -4217,21 +4226,21 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4245,7 +4254,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -4259,7 +4268,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -4273,7 +4282,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -4288,7 +4297,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -4300,7 +4309,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -4312,7 +4321,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>7</v>
@@ -4324,7 +4333,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -4336,7 +4345,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>9</v>
@@ -4348,7 +4357,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>10</v>
@@ -4360,7 +4369,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1">
@@ -4373,21 +4382,21 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4401,7 +4410,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -4415,7 +4424,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -4429,7 +4438,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -4444,7 +4453,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -4459,7 +4468,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -4474,7 +4483,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58">
         <v>7</v>
@@ -4489,7 +4498,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B59">
         <v>8</v>
@@ -4504,7 +4513,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B60">
         <v>9</v>
@@ -4519,7 +4528,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -4534,7 +4543,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D62" s="1">
         <f>AVERAGE(D52:D61)</f>
@@ -4571,21 +4580,21 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4600,7 +4609,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4615,7 +4624,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4630,7 +4639,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4645,7 +4654,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4658,7 +4667,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4671,7 +4680,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4684,7 +4693,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4697,7 +4706,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4710,7 +4719,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4723,7 +4732,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -4739,27 +4748,27 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
         <v>92</v>
-      </c>
-      <c r="G14" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -4778,7 +4787,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -4795,7 +4804,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -4804,7 +4813,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
       <c r="F17" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G17">
         <v>158.84100000000001</v>
@@ -4812,7 +4821,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -4829,7 +4838,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -4843,7 +4852,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -4854,7 +4863,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>7</v>
@@ -4865,7 +4874,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -4876,7 +4885,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>9</v>
@@ -4887,7 +4896,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -4898,7 +4907,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
@@ -4906,27 +4915,27 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" t="s">
         <v>92</v>
-      </c>
-      <c r="G27" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4940,7 +4949,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -4954,7 +4963,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -4965,7 +4974,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -4976,7 +4985,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -4987,7 +4996,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -4998,7 +5007,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>7</v>
@@ -5009,7 +5018,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -5020,7 +5029,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B36">
         <v>9</v>
@@ -5031,7 +5040,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>10</v>
@@ -5042,7 +5051,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
@@ -5075,7 +5084,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>2004</v>
@@ -5095,12 +5104,12 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5111,7 +5120,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -5122,7 +5131,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -5133,7 +5142,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -5144,7 +5153,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -5155,7 +5164,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -5166,7 +5175,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -5177,7 +5186,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -5188,7 +5197,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -5199,7 +5208,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -5220,7 +5229,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -5231,7 +5240,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -5242,7 +5251,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -5253,7 +5262,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -5264,7 +5273,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -5275,7 +5284,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -5286,7 +5295,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>7</v>
@@ -5297,7 +5306,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -5308,7 +5317,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>9</v>
@@ -5319,7 +5328,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -5330,27 +5339,27 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -5361,7 +5370,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -5372,7 +5381,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -5383,7 +5392,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -5394,7 +5403,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -5405,7 +5414,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -5416,7 +5425,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>7</v>
@@ -5427,7 +5436,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -5438,7 +5447,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B36">
         <v>9</v>
@@ -5449,7 +5458,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>10</v>
@@ -5460,36 +5469,36 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5503,7 +5512,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -5514,7 +5523,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -5525,7 +5534,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -5536,7 +5545,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -5547,7 +5556,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -5558,7 +5567,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -5569,7 +5578,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -5580,7 +5589,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>9</v>
@@ -5591,7 +5600,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>10</v>
@@ -5602,36 +5611,36 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -5650,7 +5659,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -5669,7 +5678,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -5688,7 +5697,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -5707,7 +5716,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -5726,7 +5735,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -5739,7 +5748,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B60">
         <v>7</v>
@@ -5752,7 +5761,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -5765,7 +5774,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B62">
         <v>9</v>
@@ -5778,7 +5787,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B63">
         <v>10</v>
@@ -5791,7 +5800,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E64" s="2">
         <f>AVERAGE(E54:E63)</f>
@@ -5825,7 +5834,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>3004</v>
@@ -5833,27 +5842,27 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5864,7 +5873,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -5875,7 +5884,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -5886,7 +5895,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -5897,7 +5906,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -5908,7 +5917,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -5919,7 +5928,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -5930,7 +5939,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -5941,7 +5950,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -5952,7 +5961,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -5963,30 +5972,30 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -5997,7 +6006,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -6008,7 +6017,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -6019,7 +6028,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -6030,7 +6039,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -6041,7 +6050,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -6052,7 +6061,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -6063,7 +6072,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -6074,7 +6083,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -6085,7 +6094,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -6096,30 +6105,30 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -6138,7 +6147,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -6157,7 +6166,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -6176,7 +6185,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -6195,7 +6204,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -6214,7 +6223,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -6233,7 +6242,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -6252,7 +6261,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -6271,7 +6280,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>9</v>
@@ -6290,7 +6299,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38">
         <v>10</v>
@@ -6309,7 +6318,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E39">
         <f>AVERAGE(E29:E38)</f>
@@ -6322,30 +6331,30 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -6359,7 +6368,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -6373,7 +6382,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -6387,7 +6396,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -6401,7 +6410,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -6415,7 +6424,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -6426,7 +6435,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -6437,7 +6446,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>8</v>
@@ -6448,7 +6457,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>9</v>
@@ -6459,7 +6468,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>10</v>
@@ -6494,7 +6503,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>4004</v>
@@ -6502,27 +6511,27 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6533,7 +6542,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -6544,7 +6553,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -6555,7 +6564,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -6566,7 +6575,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -6577,7 +6586,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -6588,7 +6597,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -6599,7 +6608,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -6610,7 +6619,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -6621,7 +6630,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -6632,30 +6641,30 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -6666,7 +6675,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -6677,7 +6686,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -6688,7 +6697,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -6699,7 +6708,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -6710,7 +6719,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -6721,7 +6730,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -6732,7 +6741,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -6743,7 +6752,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -6754,7 +6763,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -6765,30 +6774,30 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -6805,7 +6814,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -6816,7 +6825,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -6827,7 +6836,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -6838,7 +6847,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -6849,7 +6858,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -6860,7 +6869,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -6871,7 +6880,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -6882,7 +6891,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>9</v>
@@ -6893,7 +6902,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38">
         <v>10</v>
@@ -6904,30 +6913,30 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -6941,7 +6950,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -6952,7 +6961,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -6963,7 +6972,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -6974,7 +6983,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -6985,7 +6994,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -6996,7 +7005,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -7007,7 +7016,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>8</v>
@@ -7018,7 +7027,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>9</v>
@@ -7029,7 +7038,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>10</v>
@@ -7066,7 +7075,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>3004</v>
@@ -7074,27 +7083,27 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7105,7 +7114,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -7116,7 +7125,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -7127,7 +7136,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -7138,7 +7147,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -7149,7 +7158,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -7160,7 +7169,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -7171,7 +7180,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -7182,7 +7191,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -7193,7 +7202,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -7204,39 +7213,39 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="I15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -7250,7 +7259,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -7261,7 +7270,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -7272,7 +7281,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -7283,7 +7292,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -7294,7 +7303,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -7305,7 +7314,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -7316,7 +7325,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -7327,7 +7336,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -7338,7 +7347,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -7349,39 +7358,39 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="I28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -7407,7 +7416,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -7424,7 +7433,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -7441,7 +7450,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -7455,7 +7464,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -7466,7 +7475,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -7477,7 +7486,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -7488,7 +7497,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -7499,7 +7508,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>9</v>
@@ -7510,7 +7519,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38">
         <v>10</v>
@@ -7521,39 +7530,39 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="I41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -7567,7 +7576,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -7578,7 +7587,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -7589,7 +7598,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -7600,7 +7609,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -7611,7 +7620,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -7622,7 +7631,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -7633,7 +7642,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>8</v>
@@ -7644,7 +7653,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>9</v>
@@ -7655,7 +7664,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>10</v>
@@ -7687,65 +7696,65 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7753,39 +7762,39 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7793,79 +7802,79 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5"/>
       <c r="C22" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7874,29 +7883,29 @@
     </row>
     <row r="24" spans="1:3">
       <c r="B24" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7904,61 +7913,61 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="C30" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="B34" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="B35" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7966,10 +7975,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="B38" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -7994,24 +8003,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>125</v>
@@ -8025,7 +8034,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>125</v>
@@ -8039,7 +8048,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>125</v>
@@ -8053,7 +8062,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>250</v>
@@ -8067,7 +8076,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6">
         <v>250</v>
@@ -8081,7 +8090,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>250</v>
@@ -8095,7 +8104,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>500</v>
@@ -8109,7 +8118,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>500</v>
@@ -8123,7 +8132,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10">
         <v>500</v>
@@ -8140,7 +8149,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11">
         <v>1000</v>
@@ -8157,7 +8166,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -8174,7 +8183,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B13">
         <v>1000</v>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC10910-1EE2-4941-A1CB-924E16913665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179A9664-8045-4358-959F-A97610ED69C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2251,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3206,7 +3206,7 @@
         <v>29.710899999999999</v>
       </c>
       <c r="E75" s="2">
-        <v>22.279199999999999</v>
+        <v>96.302400000000006</v>
       </c>
       <c r="H75">
         <v>53.326599999999999</v>
@@ -3232,7 +3232,7 @@
         <v>31.7179</v>
       </c>
       <c r="E76" s="2">
-        <v>36.223399999999998</v>
+        <v>51.773499999999999</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>52</v>
@@ -3258,7 +3258,7 @@
         <v>45.445099999999996</v>
       </c>
       <c r="E77" s="2">
-        <v>46.934399999999997</v>
+        <v>80.264300000000006</v>
       </c>
       <c r="I77">
         <v>38.357199999999999</v>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="E85" s="2">
         <f>AVERAGE(E75:E84)</f>
-        <v>72.941659999999999</v>
+        <v>85.231979999999993</v>
       </c>
       <c r="I85" s="2">
         <f>AVERAGE(I74:I83)</f>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="E86" s="2">
         <f>AVERAGE(E75:E84)</f>
-        <v>72.941659999999999</v>
+        <v>85.231979999999993</v>
       </c>
     </row>
     <row r="87" spans="1:9">

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179A9664-8045-4358-959F-A97610ED69C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBD473D-7BAE-4744-9AC4-975B8192B56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2251,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2302,6 +2302,9 @@
       <c r="E2" s="2">
         <f>C2/D2</f>
         <v>1230652.7509508354</v>
+      </c>
+      <c r="F2">
+        <v>1178190</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBD473D-7BAE-4744-9AC4-975B8192B56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4133C0FA-0E49-4CE8-9571-BEFBD1017C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500.1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="1000.9" sheetId="7" r:id="rId7"/>
     <sheet name="variables" sheetId="4" r:id="rId8"/>
     <sheet name="data_size" sheetId="8" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId10"/>
+    <sheet name="cross_over" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="120">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1836,22 +1836,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L=30000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P=20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEAN TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>run time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>动态=40000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1870,6 +1854,94 @@
   <si>
     <t>Time (tt*0.6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">population: 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution: 0 3 1 0 2 1 2 0 2 1 2 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partition index: 0 0 0 1 0 1 1 2 2 2 3 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">partition: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 3 7 11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 5 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 6 8 10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">color nums: 4 3 4 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">population: 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution: 3 0 2 0 1 2 2 0 3 3 1 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partition index: 0 0 0 1 0 1 2 2 1 2 1 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 3 7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 10 11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 5 6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 8 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">color nums: 3 3 3 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution: 0 3 1 0 2 1 1 0 2 1 2 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partition index: 0 0 0 1 0 1 2 2 1 3 2 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 5 6 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 8 10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">color nums: 4 4 3 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c1 structure: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">c2 structure: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution: 3 0 2 0 1 2 1 0 1 0 1 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partition index: 0 0 0 1 0 1 1 2 2 3 3 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 3 7 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">color nums: 4 4 2 2 </t>
   </si>
 </sst>
 </file>
@@ -2251,7 +2323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2283,7 +2355,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3186,7 +3258,7 @@
         <v>55</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I74" t="s">
         <v>82</v>
@@ -3590,200 +3662,175 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED288E8-003C-4A82-BC01-BAAF7FCF3F70}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="9" style="9" customWidth="1"/>
+    <col min="1" max="1" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="9" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1">
-        <v>500.1</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1">
-        <v>500.5</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>86</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="9">
-        <v>23.421099999999999</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="9">
-        <v>40.042099999999998</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="9">
-        <v>29.711300000000001</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="9">
-        <v>15.4536</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="9">
-        <v>38.357199999999999</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="9">
-        <v>25.2683</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="9">
-        <v>53.893599999999999</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="9">
-        <v>34.0242</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="9">
-        <v>23.152799999999999</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="9">
-        <v>16.625399999999999</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="9">
-        <v>30.468499999999999</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="9">
-        <v>39.71</v>
-      </c>
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="9">
-        <v>56.275700000000001</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="9">
-        <v>33.592799999999997</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="9">
-        <v>10.775</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="9">
-        <v>36.534100000000002</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="9">
-        <v>50.822000000000003</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="9">
-        <v>26.8337</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="9">
-        <v>14.825100000000001</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="9">
-        <v>44.168500000000002</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="9">
-        <v>35.208577777777776</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="9">
-        <v>31.225269999999995</v>
+        <v>94</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4763,10 +4810,10 @@
         <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4930,10 +4977,10 @@
         <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5493,7 +5540,7 @@
         <v>79</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>85</v>
@@ -5635,7 +5682,7 @@
         <v>79</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>85</v>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4133C0FA-0E49-4CE8-9571-BEFBD1017C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26CF4FE-5CAC-4B5C-9FFF-2A0D6538FAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500.1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="123">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1942,6 +1942,17 @@
   </si>
   <si>
     <t xml:space="preserve">color nums: 4 4 2 2 </t>
+  </si>
+  <si>
+    <t>pupulation=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAD1</t>
+  </si>
+  <si>
+    <t>HEAD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2321,10 +2332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3653,6 +3664,120 @@
         <v>61</v>
       </c>
     </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>120</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>122</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2">
+        <v>20.900200000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102" s="2">
+        <v>4.9744799999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>121</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103" s="2">
+        <v>4.52081</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>121</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104" s="1">
+        <v>22.663399999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105" s="1">
+        <v>3.51464</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106">
+        <v>6</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2.35202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>121</v>
+      </c>
+      <c r="B107">
+        <v>7</v>
+      </c>
+      <c r="C107" s="1">
+        <v>16.606999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="C108" s="1">
+        <v>14.179399999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109">
+        <v>9</v>
+      </c>
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110">
+        <v>10</v>
+      </c>
+      <c r="C110" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3664,7 +3789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED288E8-003C-4A82-BC01-BAAF7FCF3F70}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26CF4FE-5CAC-4B5C-9FFF-2A0D6538FAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD34003-7F3D-470E-ADEA-10AD8B18B14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500.1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="123">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2332,10 +2332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J110"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111:C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3767,7 +3767,9 @@
       <c r="B109">
         <v>9</v>
       </c>
-      <c r="C109" s="1"/>
+      <c r="C109" s="1">
+        <v>5.2111700000000001</v>
+      </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
@@ -3776,7 +3778,18 @@
       <c r="B110">
         <v>10</v>
       </c>
-      <c r="C110" s="1"/>
+      <c r="C110" s="1">
+        <v>16.6997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>61</v>
+      </c>
+      <c r="C111" s="1">
+        <f>AVERAGE(C101:C110)</f>
+        <v>11.162282000000001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3967,10 +3980,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD6EFFC-BA4E-4954-8C8C-5C7E8E2EF2DD}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4727,6 +4740,133 @@
       <c r="E62" s="1">
         <f>AVERAGE(E52:E61)</f>
         <v>31.225269999999995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
+        <v>5.03146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" s="2">
+        <v>7.4402600000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2.5082</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68" s="1">
+        <v>10.2117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69" s="1">
+        <v>6.2866200000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3.02338</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
+      <c r="C71" s="1">
+        <v>5.30105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4.2967700000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73" s="1">
+        <v>6.7566699999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1">
+        <v>4.3587899999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" s="1">
+        <f>AVERAGE(C65:C74)</f>
+        <v>5.5214900000000009</v>
       </c>
     </row>
   </sheetData>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD34003-7F3D-470E-ADEA-10AD8B18B14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A49DC1-01ED-442A-A38D-FAE483C4EC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500.1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="125">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1952,6 +1952,13 @@
   </si>
   <si>
     <t>HEAD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAD2</t>
+  </si>
+  <si>
+    <t>HEAD2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2332,10 +2339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111:C111"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3789,6 +3796,133 @@
       <c r="C111" s="1">
         <f>AVERAGE(C101:C110)</f>
         <v>11.162282000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>124</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2">
+        <v>43.892800000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115" s="2">
+        <v>4.6892300000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116" s="2">
+        <v>22.961500000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2.1916899999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118" s="1">
+        <v>3.96896</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119">
+        <v>6</v>
+      </c>
+      <c r="C119" s="1">
+        <v>22.7441</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120">
+        <v>7</v>
+      </c>
+      <c r="C120" s="1">
+        <v>16.494</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121">
+        <v>8</v>
+      </c>
+      <c r="C121" s="1">
+        <v>33.839300000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122">
+        <v>9</v>
+      </c>
+      <c r="C122" s="1">
+        <v>20.981000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>10</v>
+      </c>
+      <c r="C123" s="1">
+        <v>13.453799999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>61</v>
+      </c>
+      <c r="C124" s="1">
+        <f>AVERAGE(C114:C123)</f>
+        <v>18.521637999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3982,7 +4116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD6EFFC-BA4E-4954-8C8C-5C7E8E2EF2DD}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A49DC1-01ED-442A-A38D-FAE483C4EC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F97F914-0C25-4662-AF87-0F9F18A4EBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="126">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1959,6 +1959,10 @@
   </si>
   <si>
     <t>HEAD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_iter=4000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2342,7 +2346,7 @@
   <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3798,15 +3802,18 @@
         <v>11.162282000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>120</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>124</v>
       </c>
@@ -3814,10 +3821,13 @@
         <v>1</v>
       </c>
       <c r="C114" s="2">
+        <v>4.9859900000000001</v>
+      </c>
+      <c r="D114" s="2">
         <v>43.892800000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>124</v>
       </c>
@@ -3825,10 +3835,13 @@
         <v>2</v>
       </c>
       <c r="C115" s="2">
+        <v>3.8948800000000001</v>
+      </c>
+      <c r="D115" s="2">
         <v>4.6892300000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>123</v>
       </c>
@@ -3836,92 +3849,120 @@
         <v>3</v>
       </c>
       <c r="C116" s="2">
+        <v>5.5089300000000003</v>
+      </c>
+      <c r="D116" s="2">
         <v>22.961500000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>123</v>
       </c>
       <c r="B117">
         <v>4</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="2">
+        <v>5.4850099999999999</v>
+      </c>
+      <c r="D117" s="1">
         <v>2.1916899999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>123</v>
       </c>
       <c r="B118">
         <v>5</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="2">
+        <v>4.0137900000000002</v>
+      </c>
+      <c r="D118" s="1">
         <v>3.96896</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>123</v>
       </c>
       <c r="B119">
         <v>6</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="2">
+        <v>5.4301000000000004</v>
+      </c>
+      <c r="D119" s="1">
         <v>22.7441</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>123</v>
       </c>
       <c r="B120">
         <v>7</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="2">
+        <v>3.8970600000000002</v>
+      </c>
+      <c r="D120" s="1">
         <v>16.494</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>123</v>
       </c>
       <c r="B121">
         <v>8</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="2">
+        <v>7.3743299999999996</v>
+      </c>
+      <c r="D121" s="1">
         <v>33.839300000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>123</v>
       </c>
       <c r="B122">
         <v>9</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="2">
+        <v>3.7209300000000001</v>
+      </c>
+      <c r="D122" s="1">
         <v>20.981000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>123</v>
       </c>
       <c r="B123">
         <v>10</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="2">
+        <v>6.15313</v>
+      </c>
+      <c r="D123" s="1">
         <v>13.453799999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>61</v>
       </c>
       <c r="C124" s="1">
         <f>AVERAGE(C114:C123)</f>
+        <v>5.0464150000000005</v>
+      </c>
+      <c r="D124" s="1">
+        <f>AVERAGE(D114:D123)</f>
         <v>18.521637999999999</v>
       </c>
     </row>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F97F914-0C25-4662-AF87-0F9F18A4EBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9774F689-CC33-4995-9CEC-4EA2885F537D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500.1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="127">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1963,6 +1963,10 @@
   </si>
   <si>
     <t>max_iter=4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_iter=8000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2345,7 +2349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
@@ -4155,10 +4159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD6EFFC-BA4E-4954-8C8C-5C7E8E2EF2DD}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5044,6 +5048,133 @@
         <v>5.5214900000000009</v>
       </c>
     </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <v>21.550599999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>124</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" s="2">
+        <v>5.8128500000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" s="2">
+        <v>4.0119899999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82" s="1">
+        <v>10.306900000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2.9172199999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2.9496799999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85" s="1">
+        <v>7.01403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>123</v>
+      </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="C86" s="1">
+        <v>7.3122400000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>123</v>
+      </c>
+      <c r="B87">
+        <v>9</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2.8584499999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88" s="1">
+        <v>4.9146700000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" s="1">
+        <f>AVERAGE(C79:C88)</f>
+        <v>6.9648630000000011</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5055,7 +5186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A64073-A659-4E0B-A57C-5317A7C4EDA7}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -8483,7 +8614,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9774F689-CC33-4995-9CEC-4EA2885F537D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987CD1BD-9EDA-4D0A-A60E-850B1A0C7F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500.1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="129">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1967,6 +1967,14 @@
   </si>
   <si>
     <t>max_iter=8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_iter=15000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_iter=3000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4161,8 +4169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD6EFFC-BA4E-4954-8C8C-5C7E8E2EF2DD}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5686,10 +5694,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D45A1A-035D-4F1E-BC30-8A3627752879}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6428,6 +6436,113 @@
         <v>1153.1986000000002</v>
       </c>
     </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76">
+        <v>9</v>
+      </c>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" s="1" t="e">
+        <f>AVERAGE(C68:C77)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6436,10 +6551,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6670C40B-BF98-4648-ADDD-E181242406C1}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7097,6 +7212,133 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
+        <v>12.9984</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" s="2">
+        <v>11.0943</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" s="2">
+        <v>13.2736</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1">
+        <v>13.2346</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59" s="1">
+        <v>13.886699999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1">
+        <v>8.9508899999999993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61" s="1">
+        <v>11.222099999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62">
+        <v>8</v>
+      </c>
+      <c r="C62" s="1">
+        <v>12.161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63">
+        <v>9</v>
+      </c>
+      <c r="C63" s="1">
+        <v>11.3851</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1">
+        <v>9.9372699999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="1">
+        <f>AVERAGE(C55:C64)</f>
+        <v>11.814395999999999</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8613,8 +8855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EB2E5B-1E72-4892-AA2A-2DD2EB7F2E3A}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987CD1BD-9EDA-4D0A-A60E-850B1A0C7F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A73D16-4515-46E7-9AAB-987255093186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500.1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="130">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1975,6 +1975,10 @@
   </si>
   <si>
     <t>max_iter=3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_iter=7000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2357,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3691,7 +3695,10 @@
       <c r="A100" t="s">
         <v>120</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3703,6 +3710,9 @@
         <v>1</v>
       </c>
       <c r="C101" s="2">
+        <v>1.31331</v>
+      </c>
+      <c r="D101" s="2">
         <v>20.900200000000002</v>
       </c>
     </row>
@@ -3714,6 +3724,9 @@
         <v>2</v>
       </c>
       <c r="C102" s="2">
+        <v>3.5569000000000002</v>
+      </c>
+      <c r="D102" s="2">
         <v>4.9744799999999998</v>
       </c>
     </row>
@@ -3725,6 +3738,9 @@
         <v>3</v>
       </c>
       <c r="C103" s="2">
+        <v>1.8700300000000001</v>
+      </c>
+      <c r="D103" s="2">
         <v>4.52081</v>
       </c>
     </row>
@@ -3736,6 +3752,9 @@
         <v>4</v>
       </c>
       <c r="C104" s="1">
+        <v>4.3100899999999998</v>
+      </c>
+      <c r="D104" s="1">
         <v>22.663399999999999</v>
       </c>
     </row>
@@ -3747,6 +3766,9 @@
         <v>5</v>
       </c>
       <c r="C105" s="1">
+        <v>2.0513400000000002</v>
+      </c>
+      <c r="D105" s="1">
         <v>3.51464</v>
       </c>
     </row>
@@ -3758,6 +3780,9 @@
         <v>6</v>
       </c>
       <c r="C106" s="1">
+        <v>2.8481299999999998</v>
+      </c>
+      <c r="D106" s="1">
         <v>2.35202</v>
       </c>
     </row>
@@ -3769,6 +3794,9 @@
         <v>7</v>
       </c>
       <c r="C107" s="1">
+        <v>5.1452999999999998</v>
+      </c>
+      <c r="D107" s="1">
         <v>16.606999999999999</v>
       </c>
     </row>
@@ -3780,6 +3808,9 @@
         <v>8</v>
       </c>
       <c r="C108" s="1">
+        <v>1.9957499999999999</v>
+      </c>
+      <c r="D108" s="1">
         <v>14.179399999999999</v>
       </c>
     </row>
@@ -3791,6 +3822,9 @@
         <v>9</v>
       </c>
       <c r="C109" s="1">
+        <v>17.384699999999999</v>
+      </c>
+      <c r="D109" s="1">
         <v>5.2111700000000001</v>
       </c>
     </row>
@@ -3802,6 +3836,9 @@
         <v>10</v>
       </c>
       <c r="C110" s="1">
+        <v>8.6890199999999993</v>
+      </c>
+      <c r="D110" s="1">
         <v>16.6997</v>
       </c>
     </row>
@@ -3811,6 +3848,10 @@
       </c>
       <c r="C111" s="1">
         <f>AVERAGE(C101:C110)</f>
+        <v>4.9164569999999994</v>
+      </c>
+      <c r="D111" s="1">
+        <f>AVERAGE(D101:D110)</f>
         <v>11.162282000000001</v>
       </c>
     </row>
@@ -4169,8 +4210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD6EFFC-BA4E-4954-8C8C-5C7E8E2EF2DD}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:C89"/>
+    <sheetView topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4933,11 +4974,14 @@
       <c r="A64" t="s">
         <v>120</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>122</v>
       </c>
@@ -4945,10 +4989,13 @@
         <v>1</v>
       </c>
       <c r="C65" s="2">
+        <v>4.4106899999999998</v>
+      </c>
+      <c r="D65" s="2">
         <v>5.03146</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>122</v>
       </c>
@@ -4956,10 +5003,13 @@
         <v>2</v>
       </c>
       <c r="C66" s="2">
+        <v>4.0997000000000003</v>
+      </c>
+      <c r="D66" s="2">
         <v>7.4402600000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>121</v>
       </c>
@@ -4967,10 +5017,13 @@
         <v>3</v>
       </c>
       <c r="C67" s="2">
+        <v>5.9141500000000002</v>
+      </c>
+      <c r="D67" s="2">
         <v>2.5082</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>121</v>
       </c>
@@ -4978,10 +5031,13 @@
         <v>4</v>
       </c>
       <c r="C68" s="1">
+        <v>10.945499999999999</v>
+      </c>
+      <c r="D68" s="1">
         <v>10.2117</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>121</v>
       </c>
@@ -4989,10 +5045,13 @@
         <v>5</v>
       </c>
       <c r="C69" s="1">
+        <v>9.0177999999999994</v>
+      </c>
+      <c r="D69" s="1">
         <v>6.2866200000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>121</v>
       </c>
@@ -5000,10 +5059,13 @@
         <v>6</v>
       </c>
       <c r="C70" s="1">
+        <v>4.6982499999999998</v>
+      </c>
+      <c r="D70" s="1">
         <v>3.02338</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>121</v>
       </c>
@@ -5011,10 +5073,13 @@
         <v>7</v>
       </c>
       <c r="C71" s="1">
+        <v>2.51098</v>
+      </c>
+      <c r="D71" s="1">
         <v>5.30105</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>121</v>
       </c>
@@ -5022,10 +5087,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="1">
+        <v>5.1325900000000004</v>
+      </c>
+      <c r="D72" s="1">
         <v>4.2967700000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -5033,10 +5101,13 @@
         <v>9</v>
       </c>
       <c r="C73" s="1">
+        <v>2.72851</v>
+      </c>
+      <c r="D73" s="1">
         <v>6.7566699999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>121</v>
       </c>
@@ -5044,27 +5115,34 @@
         <v>10</v>
       </c>
       <c r="C74" s="1">
+        <v>2.5761799999999999</v>
+      </c>
+      <c r="D74" s="1">
         <v>4.3587899999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>61</v>
       </c>
       <c r="C75" s="1">
         <f>AVERAGE(C65:C74)</f>
+        <v>5.2034350000000007</v>
+      </c>
+      <c r="D75" s="1">
+        <f>AVERAGE(D65:D74)</f>
         <v>5.5214900000000009</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>120</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>124</v>
       </c>
@@ -5075,7 +5153,7 @@
         <v>21.550599999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>124</v>
       </c>
@@ -5696,8 +5774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D45A1A-035D-4F1E-BC30-8A3627752879}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:C78"/>
+    <sheetView topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6551,10 +6629,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6670C40B-BF98-4648-ADDD-E181242406C1}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7218,7 +7296,7 @@
         <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -7228,9 +7306,7 @@
       <c r="B55">
         <v>1</v>
       </c>
-      <c r="C55" s="2">
-        <v>12.9984</v>
-      </c>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
@@ -7239,9 +7315,7 @@
       <c r="B56">
         <v>2</v>
       </c>
-      <c r="C56" s="2">
-        <v>11.0943</v>
-      </c>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
@@ -7250,9 +7324,7 @@
       <c r="B57">
         <v>3</v>
       </c>
-      <c r="C57" s="2">
-        <v>13.2736</v>
-      </c>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
@@ -7261,9 +7333,7 @@
       <c r="B58">
         <v>4</v>
       </c>
-      <c r="C58" s="1">
-        <v>13.2346</v>
-      </c>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
@@ -7272,9 +7342,7 @@
       <c r="B59">
         <v>5</v>
       </c>
-      <c r="C59" s="1">
-        <v>13.886699999999999</v>
-      </c>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
@@ -7283,9 +7351,7 @@
       <c r="B60">
         <v>6</v>
       </c>
-      <c r="C60" s="1">
-        <v>8.9508899999999993</v>
-      </c>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
@@ -7294,9 +7360,7 @@
       <c r="B61">
         <v>7</v>
       </c>
-      <c r="C61" s="1">
-        <v>11.222099999999999</v>
-      </c>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
@@ -7305,9 +7369,7 @@
       <c r="B62">
         <v>8</v>
       </c>
-      <c r="C62" s="1">
-        <v>12.161</v>
-      </c>
+      <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
@@ -7316,9 +7378,7 @@
       <c r="B63">
         <v>9</v>
       </c>
-      <c r="C63" s="1">
-        <v>11.3851</v>
-      </c>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
@@ -7327,16 +7387,141 @@
       <c r="B64">
         <v>10</v>
       </c>
-      <c r="C64" s="1">
-        <v>9.9372699999999998</v>
-      </c>
+      <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="1" t="e">
         <f>AVERAGE(C55:C64)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2">
+        <v>12.9984</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" s="2">
+        <v>11.0943</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" s="2">
+        <v>13.2736</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1">
+        <v>13.2346</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73" s="1">
+        <v>13.886699999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1">
+        <v>8.9508899999999993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75">
+        <v>7</v>
+      </c>
+      <c r="C75" s="1">
+        <v>11.222099999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76" s="1">
+        <v>12.161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77" s="1">
+        <v>11.3851</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78" s="1">
+        <v>9.9372699999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" s="1">
+        <f>AVERAGE(C69:C78)</f>
         <v>11.814395999999999</v>
       </c>
     </row>
@@ -8855,7 +9040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EB2E5B-1E72-4892-AA2A-2DD2EB7F2E3A}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A73D16-4515-46E7-9AAB-987255093186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78476A21-0604-46C8-BA6E-7B0AD3EC07C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500.1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="131">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1979,6 +1979,10 @@
   </si>
   <si>
     <t>max_iter=7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>running time(s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2361,7 +2365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
@@ -4210,8 +4214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD6EFFC-BA4E-4954-8C8C-5C7E8E2EF2DD}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5270,16 +5274,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A64073-A659-4E0B-A57C-5317A7C4EDA7}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.77734375" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" customWidth="1"/>
@@ -5763,6 +5767,128 @@
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
+        <v>39.565600000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2">
+        <v>65.300799999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2">
+        <v>15.0366</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>33.2515</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>17.377300000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="1">
+        <f>AVERAGE(C42:C51)</f>
+        <v>34.106359999999995</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6631,7 +6757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6670C40B-BF98-4648-ADDD-E181242406C1}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>

--- a/npbenchmark-main/tabucol_vector/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_vector/tabu_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78476A21-0604-46C8-BA6E-7B0AD3EC07C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A462064-8884-4968-8214-05C001A0C07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5277,7 +5277,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5843,7 +5843,9 @@
       <c r="B47">
         <v>6</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1">
+        <v>53.999899999999997</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
@@ -5852,7 +5854,9 @@
       <c r="B48">
         <v>7</v>
       </c>
-      <c r="C48" s="1"/>
+      <c r="C48" s="1">
+        <v>13.545999999999999</v>
+      </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
@@ -5861,7 +5865,9 @@
       <c r="B49">
         <v>8</v>
       </c>
-      <c r="C49" s="1"/>
+      <c r="C49" s="1">
+        <v>97.542000000000002</v>
+      </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
@@ -5870,7 +5876,9 @@
       <c r="B50">
         <v>9</v>
       </c>
-      <c r="C50" s="1"/>
+      <c r="C50" s="1">
+        <v>20.786799999999999</v>
+      </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
@@ -5879,7 +5887,9 @@
       <c r="B51">
         <v>10</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="C51" s="1">
+        <v>21.0123</v>
+      </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
@@ -5887,7 +5897,7 @@
       </c>
       <c r="C52" s="1">
         <f>AVERAGE(C42:C51)</f>
-        <v>34.106359999999995</v>
+        <v>37.741879999999995</v>
       </c>
     </row>
   </sheetData>
